--- a/raw_data/20200818_saline/20200818_Sensor1_Test_64.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_64.xlsx
@@ -1,613 +1,1029 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806C97FE-CE63-45F0-9D3D-9762860F4F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>56888.005380</v>
+        <v>56888.005380000002</v>
       </c>
       <c r="B2" s="1">
-        <v>15.802224</v>
+        <v>15.802224000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>899.072000</v>
+        <v>899.072</v>
       </c>
       <c r="D2" s="1">
-        <v>-196.893000</v>
+        <v>-196.893</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>56898.077638</v>
+        <v>56898.077638000002</v>
       </c>
       <c r="G2" s="1">
-        <v>15.805022</v>
+        <v>15.805021999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>916.691000</v>
+        <v>916.69100000000003</v>
       </c>
       <c r="I2" s="1">
-        <v>-166.927000</v>
+        <v>-166.92699999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>56908.091411</v>
+        <v>56908.091411000001</v>
       </c>
       <c r="L2" s="1">
         <v>15.807803</v>
       </c>
       <c r="M2" s="1">
-        <v>939.524000</v>
+        <v>939.524</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.809000</v>
+        <v>-118.809</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>56918.952764</v>
+        <v>56918.952764000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>15.810820</v>
+        <v>15.81082</v>
       </c>
       <c r="R2" s="1">
-        <v>946.298000</v>
+        <v>946.298</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.760000</v>
+        <v>-102.76</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>56929.621213</v>
+        <v>56929.621212999999</v>
       </c>
       <c r="V2" s="1">
         <v>15.813784</v>
       </c>
       <c r="W2" s="1">
-        <v>952.796000</v>
+        <v>952.79600000000005</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.104500</v>
+        <v>-88.104500000000002</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>56940.060049</v>
       </c>
       <c r="AA2" s="1">
-        <v>15.816683</v>
+        <v>15.816682999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>960.082000</v>
+        <v>960.08199999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.757500</v>
+        <v>-76.757499999999993</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>56950.623182</v>
+        <v>56950.623182000003</v>
       </c>
       <c r="AF2" s="1">
         <v>15.819618</v>
       </c>
       <c r="AG2" s="1">
-        <v>964.720000</v>
+        <v>964.72</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.656400</v>
+        <v>-74.656400000000005</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>56961.076500</v>
+        <v>56961.076500000003</v>
       </c>
       <c r="AK2" s="1">
         <v>15.822521</v>
       </c>
       <c r="AL2" s="1">
-        <v>972.091000</v>
+        <v>972.09100000000001</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.752200</v>
+        <v>-79.752200000000002</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>56971.663111</v>
+        <v>56971.663111000002</v>
       </c>
       <c r="AP2" s="1">
         <v>15.825462</v>
       </c>
       <c r="AQ2" s="1">
-        <v>980.286000</v>
+        <v>980.28599999999994</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.535800</v>
+        <v>-91.535799999999995</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>56982.529959</v>
@@ -616,572 +1032,572 @@
         <v>15.828481</v>
       </c>
       <c r="AV2" s="1">
-        <v>990.289000</v>
+        <v>990.28899999999999</v>
       </c>
       <c r="AW2" s="1">
-        <v>-109.406000</v>
+        <v>-109.40600000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>56993.576361</v>
+        <v>56993.576360999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>15.831549</v>
+        <v>15.831549000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>998.692000</v>
+        <v>998.69200000000001</v>
       </c>
       <c r="BB2" s="1">
-        <v>-125.181000</v>
+        <v>-125.181</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>57004.185786</v>
+        <v>57004.185786000002</v>
       </c>
       <c r="BE2" s="1">
         <v>15.834496</v>
       </c>
       <c r="BF2" s="1">
-        <v>1038.050000</v>
+        <v>1038.05</v>
       </c>
       <c r="BG2" s="1">
-        <v>-197.361000</v>
+        <v>-197.36099999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>57015.624027</v>
+        <v>57015.624026999998</v>
       </c>
       <c r="BJ2" s="1">
-        <v>15.837673</v>
+        <v>15.837673000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1105.870000</v>
+        <v>1105.8699999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-313.713000</v>
+        <v>-313.71300000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>57027.128732</v>
+        <v>57027.128731999997</v>
       </c>
       <c r="BO2" s="1">
         <v>15.840869</v>
       </c>
       <c r="BP2" s="1">
-        <v>1215.490000</v>
+        <v>1215.49</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-495.924000</v>
+        <v>-495.92399999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>57039.002956</v>
+        <v>57039.002955999997</v>
       </c>
       <c r="BT2" s="1">
-        <v>15.844167</v>
+        <v>15.844167000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1337.830000</v>
+        <v>1337.83</v>
       </c>
       <c r="BV2" s="1">
-        <v>-695.121000</v>
+        <v>-695.12099999999998</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>57049.439812</v>
+        <v>57049.439811999997</v>
       </c>
       <c r="BY2" s="1">
-        <v>15.847067</v>
+        <v>15.847066999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1474.670000</v>
+        <v>1474.67</v>
       </c>
       <c r="CA2" s="1">
-        <v>-906.543000</v>
+        <v>-906.54300000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>57060.497626</v>
+        <v>57060.497625999997</v>
       </c>
       <c r="CD2" s="1">
-        <v>15.850138</v>
+        <v>15.850137999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1831.200000</v>
+        <v>1831.2</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1406.440000</v>
+        <v>-1406.44</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>56888.367460</v>
+        <v>56888.367460000001</v>
       </c>
       <c r="B3" s="1">
         <v>15.802324</v>
       </c>
       <c r="C3" s="1">
-        <v>899.200000</v>
+        <v>899.2</v>
       </c>
       <c r="D3" s="1">
-        <v>-196.874000</v>
+        <v>-196.874</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>56898.504198</v>
+        <v>56898.504198000002</v>
       </c>
       <c r="G3" s="1">
-        <v>15.805140</v>
+        <v>15.80514</v>
       </c>
       <c r="H3" s="1">
-        <v>916.700000</v>
+        <v>916.7</v>
       </c>
       <c r="I3" s="1">
-        <v>-167.119000</v>
+        <v>-167.119</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>56908.519419</v>
+        <v>56908.519418999997</v>
       </c>
       <c r="L3" s="1">
         <v>15.807922</v>
       </c>
       <c r="M3" s="1">
-        <v>939.599000</v>
+        <v>939.59900000000005</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.827000</v>
+        <v>-118.827</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>56919.366954</v>
+        <v>56919.366953999997</v>
       </c>
       <c r="Q3" s="1">
-        <v>15.810935</v>
+        <v>15.810935000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>946.331000</v>
+        <v>946.33100000000002</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.761000</v>
+        <v>-102.761</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>56929.967917</v>
+        <v>56929.967917000002</v>
       </c>
       <c r="V3" s="1">
-        <v>15.813880</v>
+        <v>15.813879999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>952.892000</v>
+        <v>952.89200000000005</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.003400</v>
+        <v>-88.003399999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>56940.428046</v>
+        <v>56940.428046000001</v>
       </c>
       <c r="AA3" s="1">
         <v>15.816786</v>
       </c>
       <c r="AB3" s="1">
-        <v>960.025000</v>
+        <v>960.02499999999998</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.814600</v>
+        <v>-76.814599999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>56951.002786</v>
+        <v>56951.002785999997</v>
       </c>
       <c r="AF3" s="1">
         <v>15.819723</v>
       </c>
       <c r="AG3" s="1">
-        <v>964.824000</v>
+        <v>964.82399999999996</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.704400</v>
+        <v>-74.704400000000007</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>56961.476771</v>
+        <v>56961.476771000001</v>
       </c>
       <c r="AK3" s="1">
         <v>15.822632</v>
       </c>
       <c r="AL3" s="1">
-        <v>972.092000</v>
+        <v>972.09199999999998</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.732900</v>
+        <v>-79.732900000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>56972.409130</v>
+        <v>56972.40913</v>
       </c>
       <c r="AP3" s="1">
         <v>15.825669</v>
       </c>
       <c r="AQ3" s="1">
-        <v>980.266000</v>
+        <v>980.26599999999996</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.539200</v>
+        <v>-91.539199999999994</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>56982.928742</v>
+        <v>56982.928741999996</v>
       </c>
       <c r="AU3" s="1">
-        <v>15.828591</v>
+        <v>15.828590999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>990.305000</v>
+        <v>990.30499999999995</v>
       </c>
       <c r="AW3" s="1">
-        <v>-109.407000</v>
+        <v>-109.407</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>56993.976632</v>
+        <v>56993.976631999998</v>
       </c>
       <c r="AZ3" s="1">
-        <v>15.831660</v>
+        <v>15.831659999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>998.710000</v>
+        <v>998.71</v>
       </c>
       <c r="BB3" s="1">
-        <v>-125.165000</v>
+        <v>-125.16500000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>57004.548394</v>
+        <v>57004.548393999998</v>
       </c>
       <c r="BE3" s="1">
         <v>15.834597</v>
       </c>
       <c r="BF3" s="1">
-        <v>1038.060000</v>
+        <v>1038.06</v>
       </c>
       <c r="BG3" s="1">
-        <v>-197.366000</v>
+        <v>-197.36600000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>57016.319927</v>
+        <v>57016.319926999997</v>
       </c>
       <c r="BJ3" s="1">
-        <v>15.837867</v>
+        <v>15.837866999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1105.850000</v>
+        <v>1105.8499999999999</v>
       </c>
       <c r="BL3" s="1">
-        <v>-313.727000</v>
+        <v>-313.72699999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>57027.580587</v>
+        <v>57027.580586999997</v>
       </c>
       <c r="BO3" s="1">
-        <v>15.840995</v>
+        <v>15.840994999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1215.470000</v>
+        <v>1215.47</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-495.947000</v>
+        <v>-495.947</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>57039.156220</v>
+        <v>57039.156219999997</v>
       </c>
       <c r="BT3" s="1">
-        <v>15.844210</v>
+        <v>15.84421</v>
       </c>
       <c r="BU3" s="1">
-        <v>1337.810000</v>
+        <v>1337.81</v>
       </c>
       <c r="BV3" s="1">
-        <v>-695.226000</v>
+        <v>-695.226</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>57049.918414</v>
       </c>
       <c r="BY3" s="1">
-        <v>15.847200</v>
+        <v>15.847200000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1474.710000</v>
+        <v>1474.71</v>
       </c>
       <c r="CA3" s="1">
-        <v>-906.538000</v>
+        <v>-906.53800000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>57061.092287</v>
+        <v>57061.092286999999</v>
       </c>
       <c r="CD3" s="1">
         <v>15.850303</v>
       </c>
       <c r="CE3" s="1">
-        <v>1830.080000</v>
+        <v>1830.08</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1407.210000</v>
+        <v>-1407.21</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>56888.816339</v>
+        <v>56888.816338999997</v>
       </c>
       <c r="B4" s="1">
-        <v>15.802449</v>
+        <v>15.802448999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>899.062000</v>
+        <v>899.06200000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-197.014000</v>
+        <v>-197.01400000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>56898.805269</v>
+        <v>56898.805268999997</v>
       </c>
       <c r="G4" s="1">
-        <v>15.805224</v>
+        <v>15.805224000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>916.588000</v>
+        <v>916.58799999999997</v>
       </c>
       <c r="I4" s="1">
-        <v>-167.106000</v>
+        <v>-167.10599999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>56908.851240</v>
+        <v>56908.851240000004</v>
       </c>
       <c r="L4" s="1">
         <v>15.808014</v>
       </c>
       <c r="M4" s="1">
-        <v>939.515000</v>
+        <v>939.51499999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.635000</v>
+        <v>-118.63500000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>56919.716633</v>
+        <v>56919.716633000004</v>
       </c>
       <c r="Q4" s="1">
-        <v>15.811032</v>
+        <v>15.811032000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>946.294000</v>
+        <v>946.29399999999998</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.802000</v>
+        <v>-102.80200000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>56930.316108</v>
+        <v>56930.316107999999</v>
       </c>
       <c r="V4" s="1">
         <v>15.813977</v>
       </c>
       <c r="W4" s="1">
-        <v>952.855000</v>
+        <v>952.85500000000002</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.076600</v>
+        <v>-88.076599999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>56940.773269</v>
+        <v>56940.773268999998</v>
       </c>
       <c r="AA4" s="1">
         <v>15.816881</v>
       </c>
       <c r="AB4" s="1">
-        <v>960.036000</v>
+        <v>960.03599999999994</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.785700</v>
+        <v>-76.785700000000006</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>56951.691231</v>
+        <v>56951.691230999997</v>
       </c>
       <c r="AF4" s="1">
-        <v>15.819914</v>
+        <v>15.819914000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>964.972000</v>
+        <v>964.97199999999998</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.769300</v>
+        <v>-74.769300000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>56962.172659</v>
+        <v>56962.172659000003</v>
       </c>
       <c r="AK4" s="1">
-        <v>15.822826</v>
+        <v>15.822825999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>972.082000</v>
+        <v>972.08199999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.758200</v>
+        <v>-79.758200000000002</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>56972.767700</v>
+        <v>56972.767699999997</v>
       </c>
       <c r="AP4" s="1">
-        <v>15.825769</v>
+        <v>15.825768999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>980.279000</v>
+        <v>980.279</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.538600</v>
+        <v>-91.538600000000002</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>56983.295782</v>
+        <v>56983.295782000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>15.828693</v>
+        <v>15.828692999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>990.306000</v>
+        <v>990.30600000000004</v>
       </c>
       <c r="AW4" s="1">
-        <v>-109.396000</v>
+        <v>-109.396</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>56994.335736</v>
+        <v>56994.335736000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>15.831760</v>
+        <v>15.831759999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>998.703000</v>
+        <v>998.70299999999997</v>
       </c>
       <c r="BB4" s="1">
-        <v>-125.170000</v>
+        <v>-125.17</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>57005.221929</v>
+        <v>57005.221928999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>15.834784</v>
+        <v>15.834784000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1038.050000</v>
+        <v>1038.05</v>
       </c>
       <c r="BG4" s="1">
-        <v>-197.402000</v>
+        <v>-197.40199999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>57016.763338</v>
+        <v>57016.763337999997</v>
       </c>
       <c r="BJ4" s="1">
-        <v>15.837990</v>
+        <v>15.83799</v>
       </c>
       <c r="BK4" s="1">
-        <v>1105.890000</v>
+        <v>1105.8900000000001</v>
       </c>
       <c r="BL4" s="1">
-        <v>-313.716000</v>
+        <v>-313.71600000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>57027.949385</v>
@@ -1190,43 +1606,43 @@
         <v>15.841097</v>
       </c>
       <c r="BP4" s="1">
-        <v>1215.520000</v>
+        <v>1215.52</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-495.956000</v>
+        <v>-495.95600000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>57039.570381</v>
+        <v>57039.570380999998</v>
       </c>
       <c r="BT4" s="1">
         <v>15.844325</v>
       </c>
       <c r="BU4" s="1">
-        <v>1337.950000</v>
+        <v>1337.95</v>
       </c>
       <c r="BV4" s="1">
-        <v>-695.215000</v>
+        <v>-695.21500000000003</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>57050.347453</v>
+        <v>57050.347453000002</v>
       </c>
       <c r="BY4" s="1">
-        <v>15.847319</v>
+        <v>15.847319000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1474.690000</v>
+        <v>1474.69</v>
       </c>
       <c r="CA4" s="1">
-        <v>-906.585000</v>
+        <v>-906.58500000000004</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>57061.631468</v>
@@ -1235,75 +1651,75 @@
         <v>15.850453</v>
       </c>
       <c r="CE4" s="1">
-        <v>1831.290000</v>
+        <v>1831.29</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1407.830000</v>
+        <v>-1407.83</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>56889.081202</v>
+        <v>56889.081202000001</v>
       </c>
       <c r="B5" s="1">
-        <v>15.802523</v>
+        <v>15.802523000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>898.987000</v>
+        <v>898.98699999999997</v>
       </c>
       <c r="D5" s="1">
-        <v>-196.961000</v>
+        <v>-196.96100000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>56899.145557</v>
+        <v>56899.145557000003</v>
       </c>
       <c r="G5" s="1">
         <v>15.805318</v>
       </c>
       <c r="H5" s="1">
-        <v>916.396000</v>
+        <v>916.39599999999996</v>
       </c>
       <c r="I5" s="1">
-        <v>-167.044000</v>
+        <v>-167.04400000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>56909.199927</v>
+        <v>56909.199927000001</v>
       </c>
       <c r="L5" s="1">
         <v>15.808111</v>
       </c>
       <c r="M5" s="1">
-        <v>939.506000</v>
+        <v>939.50599999999997</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.784000</v>
+        <v>-118.78400000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>56920.066319</v>
+        <v>56920.066318999998</v>
       </c>
       <c r="Q5" s="1">
-        <v>15.811130</v>
+        <v>15.81113</v>
       </c>
       <c r="R5" s="1">
-        <v>946.223000</v>
+        <v>946.22299999999996</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.804000</v>
+        <v>-102.804</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>56931.004556</v>
@@ -1312,88 +1728,88 @@
         <v>15.814168</v>
       </c>
       <c r="W5" s="1">
-        <v>952.883000</v>
+        <v>952.88300000000004</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.045400</v>
+        <v>-88.045400000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>56941.470637</v>
+        <v>56941.470636999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>15.817075</v>
+        <v>15.817075000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>960.012000</v>
+        <v>960.01199999999994</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.872500</v>
+        <v>-76.872500000000002</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>56952.032945</v>
+        <v>56952.032944999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>15.820009</v>
+        <v>15.820009000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>964.815000</v>
+        <v>964.81500000000005</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.762800</v>
+        <v>-74.762799999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>56962.517377</v>
+        <v>56962.517376999996</v>
       </c>
       <c r="AK5" s="1">
-        <v>15.822921</v>
+        <v>15.822920999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>972.114000</v>
+        <v>972.11400000000003</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.733000</v>
+        <v>-79.733000000000004</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>56973.129780</v>
+        <v>56973.129780000003</v>
       </c>
       <c r="AP5" s="1">
-        <v>15.825869</v>
+        <v>15.825869000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>980.283000</v>
+        <v>980.28300000000002</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.520200</v>
+        <v>-91.520200000000003</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>56983.982773</v>
+        <v>56983.982773000003</v>
       </c>
       <c r="AU5" s="1">
         <v>15.828884</v>
       </c>
       <c r="AV5" s="1">
-        <v>990.309000</v>
+        <v>990.30899999999997</v>
       </c>
       <c r="AW5" s="1">
-        <v>-109.423000</v>
+        <v>-109.423</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>56994.844632</v>
@@ -1402,28 +1818,28 @@
         <v>15.831901</v>
       </c>
       <c r="BA5" s="1">
-        <v>998.704000</v>
+        <v>998.70399999999995</v>
       </c>
       <c r="BB5" s="1">
-        <v>-125.161000</v>
+        <v>-125.161</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>57005.662408</v>
+        <v>57005.662407999997</v>
       </c>
       <c r="BE5" s="1">
         <v>15.834906</v>
       </c>
       <c r="BF5" s="1">
-        <v>1038.070000</v>
+        <v>1038.07</v>
       </c>
       <c r="BG5" s="1">
-        <v>-197.380000</v>
+        <v>-197.38</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>57017.164633</v>
@@ -1432,165 +1848,165 @@
         <v>15.838101</v>
       </c>
       <c r="BK5" s="1">
-        <v>1105.890000</v>
+        <v>1105.8900000000001</v>
       </c>
       <c r="BL5" s="1">
-        <v>-313.717000</v>
+        <v>-313.71699999999998</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>57028.366065</v>
+        <v>57028.366065000002</v>
       </c>
       <c r="BO5" s="1">
         <v>15.841213</v>
       </c>
       <c r="BP5" s="1">
-        <v>1215.470000</v>
+        <v>1215.47</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-495.979000</v>
+        <v>-495.97899999999998</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>57040.001899</v>
+        <v>57040.001899000003</v>
       </c>
       <c r="BT5" s="1">
         <v>15.844445</v>
       </c>
       <c r="BU5" s="1">
-        <v>1337.970000</v>
+        <v>1337.97</v>
       </c>
       <c r="BV5" s="1">
-        <v>-695.366000</v>
+        <v>-695.36599999999999</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>57050.770045</v>
+        <v>57050.770044999997</v>
       </c>
       <c r="BY5" s="1">
         <v>15.847436</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1474.770000</v>
+        <v>1474.77</v>
       </c>
       <c r="CA5" s="1">
-        <v>-906.626000</v>
+        <v>-906.62599999999998</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>57062.171581</v>
+        <v>57062.171581000002</v>
       </c>
       <c r="CD5" s="1">
         <v>15.850603</v>
       </c>
       <c r="CE5" s="1">
-        <v>1830.290000</v>
+        <v>1830.29</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1406.580000</v>
+        <v>-1406.58</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>56889.421458</v>
+        <v>56889.421457999997</v>
       </c>
       <c r="B6" s="1">
         <v>15.802617</v>
       </c>
       <c r="C6" s="1">
-        <v>899.093000</v>
+        <v>899.09299999999996</v>
       </c>
       <c r="D6" s="1">
-        <v>-196.932000</v>
+        <v>-196.93199999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>56899.489766</v>
+        <v>56899.489765999999</v>
       </c>
       <c r="G6" s="1">
-        <v>15.805414</v>
+        <v>15.805414000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>916.884000</v>
+        <v>916.88400000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-167.116000</v>
+        <v>-167.11600000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>56909.543671</v>
+        <v>56909.543670999999</v>
       </c>
       <c r="L6" s="1">
-        <v>15.808207</v>
+        <v>15.808206999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>939.560000</v>
+        <v>939.56</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.626000</v>
+        <v>-118.626</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>56920.762199</v>
+        <v>56920.762198999997</v>
       </c>
       <c r="Q6" s="1">
         <v>15.811323</v>
       </c>
       <c r="R6" s="1">
-        <v>946.288000</v>
+        <v>946.28800000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.725000</v>
+        <v>-102.72499999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>56931.347819</v>
+        <v>56931.347819000002</v>
       </c>
       <c r="V6" s="1">
         <v>15.814263</v>
       </c>
       <c r="W6" s="1">
-        <v>952.884000</v>
+        <v>952.88400000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.044200</v>
+        <v>-88.044200000000004</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>56941.817340</v>
+        <v>56941.817340000001</v>
       </c>
       <c r="AA6" s="1">
         <v>15.817171</v>
       </c>
       <c r="AB6" s="1">
-        <v>960.029000</v>
+        <v>960.029</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.835500</v>
+        <v>-76.835499999999996</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>56952.378654</v>
@@ -1599,88 +2015,88 @@
         <v>15.820105</v>
       </c>
       <c r="AG6" s="1">
-        <v>964.781000</v>
+        <v>964.78099999999995</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.742400</v>
+        <v>-74.742400000000004</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>56963.177552</v>
+        <v>56963.177552000001</v>
       </c>
       <c r="AK6" s="1">
         <v>15.823105</v>
       </c>
       <c r="AL6" s="1">
-        <v>972.084000</v>
+        <v>972.08399999999995</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.752200</v>
+        <v>-79.752200000000002</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>56973.801363</v>
+        <v>56973.801362999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>15.826056</v>
+        <v>15.826055999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>980.280000</v>
+        <v>980.28</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.537100</v>
+        <v>-91.537099999999995</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>56984.418230</v>
+        <v>56984.418230000003</v>
       </c>
       <c r="AU6" s="1">
         <v>15.829005</v>
       </c>
       <c r="AV6" s="1">
-        <v>990.311000</v>
+        <v>990.31100000000004</v>
       </c>
       <c r="AW6" s="1">
-        <v>-109.412000</v>
+        <v>-109.41200000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>56995.052950</v>
+        <v>56995.052949999998</v>
       </c>
       <c r="AZ6" s="1">
-        <v>15.831959</v>
+        <v>15.831958999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>998.728000</v>
+        <v>998.72799999999995</v>
       </c>
       <c r="BB6" s="1">
-        <v>-125.166000</v>
+        <v>-125.166</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>57006.021512</v>
+        <v>57006.021511999999</v>
       </c>
       <c r="BE6" s="1">
         <v>15.835006</v>
       </c>
       <c r="BF6" s="1">
-        <v>1038.050000</v>
+        <v>1038.05</v>
       </c>
       <c r="BG6" s="1">
-        <v>-197.388000</v>
+        <v>-197.38800000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>57017.539116</v>
@@ -1689,784 +2105,784 @@
         <v>15.838205</v>
       </c>
       <c r="BK6" s="1">
-        <v>1105.900000</v>
+        <v>1105.9000000000001</v>
       </c>
       <c r="BL6" s="1">
-        <v>-313.723000</v>
+        <v>-313.72300000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>57028.784378</v>
+        <v>57028.784377999997</v>
       </c>
       <c r="BO6" s="1">
         <v>15.841329</v>
       </c>
       <c r="BP6" s="1">
-        <v>1215.510000</v>
+        <v>1215.51</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-495.986000</v>
+        <v>-495.98599999999999</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>57040.435900</v>
+        <v>57040.435899999997</v>
       </c>
       <c r="BT6" s="1">
         <v>15.844566</v>
       </c>
       <c r="BU6" s="1">
-        <v>1338.020000</v>
+        <v>1338.02</v>
       </c>
       <c r="BV6" s="1">
-        <v>-695.340000</v>
+        <v>-695.34</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>57051.190653</v>
+        <v>57051.190652999998</v>
       </c>
       <c r="BY6" s="1">
         <v>15.847553</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1474.700000</v>
+        <v>1474.7</v>
       </c>
       <c r="CA6" s="1">
-        <v>-906.540000</v>
+        <v>-906.54</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>57062.710733</v>
       </c>
       <c r="CD6" s="1">
-        <v>15.850753</v>
+        <v>15.850752999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1830.380000</v>
+        <v>1830.38</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1408.150000</v>
+        <v>-1408.15</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>56889.764689</v>
+        <v>56889.764689000003</v>
       </c>
       <c r="B7" s="1">
         <v>15.802712</v>
       </c>
       <c r="C7" s="1">
-        <v>899.099000</v>
+        <v>899.09900000000005</v>
       </c>
       <c r="D7" s="1">
-        <v>-196.978000</v>
+        <v>-196.97800000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>56900.177700</v>
+        <v>56900.1777</v>
       </c>
       <c r="G7" s="1">
         <v>15.805605</v>
       </c>
       <c r="H7" s="1">
-        <v>916.464000</v>
+        <v>916.46400000000006</v>
       </c>
       <c r="I7" s="1">
-        <v>-167.062000</v>
+        <v>-167.06200000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>56910.240534</v>
+        <v>56910.240533999997</v>
       </c>
       <c r="L7" s="1">
-        <v>15.808400</v>
+        <v>15.808400000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>939.584000</v>
+        <v>939.58399999999995</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.699000</v>
+        <v>-118.699</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>56921.109864</v>
+        <v>56921.109863999998</v>
       </c>
       <c r="Q7" s="1">
-        <v>15.811419</v>
+        <v>15.811419000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>946.273000</v>
+        <v>946.27300000000002</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.729000</v>
+        <v>-102.729</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>56931.693004</v>
+        <v>56931.693004000001</v>
       </c>
       <c r="V7" s="1">
         <v>15.814359</v>
       </c>
       <c r="W7" s="1">
-        <v>952.920000</v>
+        <v>952.92</v>
       </c>
       <c r="X7" s="1">
-        <v>-87.991400</v>
+        <v>-87.991399999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>56942.167550</v>
+        <v>56942.167549999998</v>
       </c>
       <c r="AA7" s="1">
         <v>15.817269</v>
       </c>
       <c r="AB7" s="1">
-        <v>959.970000</v>
+        <v>959.97</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.748000</v>
+        <v>-76.748000000000005</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>56953.032877</v>
+        <v>56953.032876999998</v>
       </c>
       <c r="AF7" s="1">
         <v>15.820287</v>
       </c>
       <c r="AG7" s="1">
-        <v>964.847000</v>
+        <v>964.84699999999998</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.772800</v>
+        <v>-74.772800000000004</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>56963.566445</v>
+        <v>56963.566444999997</v>
       </c>
       <c r="AK7" s="1">
-        <v>15.823213</v>
+        <v>15.823213000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>972.092000</v>
+        <v>972.09199999999998</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.745800</v>
+        <v>-79.745800000000003</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>56974.208114</v>
+        <v>56974.208114000001</v>
       </c>
       <c r="AP7" s="1">
         <v>15.826169</v>
       </c>
       <c r="AQ7" s="1">
-        <v>980.293000</v>
+        <v>980.29300000000001</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.534100</v>
+        <v>-91.534099999999995</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>56984.784276</v>
+        <v>56984.784275999998</v>
       </c>
       <c r="AU7" s="1">
         <v>15.829107</v>
       </c>
       <c r="AV7" s="1">
-        <v>990.279000</v>
+        <v>990.279</v>
       </c>
       <c r="AW7" s="1">
-        <v>-109.397000</v>
+        <v>-109.39700000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>56995.412054</v>
       </c>
       <c r="AZ7" s="1">
-        <v>15.832059</v>
+        <v>15.832058999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>998.714000</v>
+        <v>998.71400000000006</v>
       </c>
       <c r="BB7" s="1">
-        <v>-125.168000</v>
+        <v>-125.16800000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>57006.382567</v>
+        <v>57006.382567000001</v>
       </c>
       <c r="BE7" s="1">
         <v>15.835106</v>
       </c>
       <c r="BF7" s="1">
-        <v>1038.070000</v>
+        <v>1038.07</v>
       </c>
       <c r="BG7" s="1">
-        <v>-197.388000</v>
+        <v>-197.38800000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>57017.970149</v>
+        <v>57017.970149000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>15.838325</v>
+        <v>15.838324999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1105.880000</v>
+        <v>1105.8800000000001</v>
       </c>
       <c r="BL7" s="1">
-        <v>-313.721000</v>
+        <v>-313.721</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>57029.187625</v>
+        <v>57029.187624999999</v>
       </c>
       <c r="BO7" s="1">
         <v>15.841441</v>
       </c>
       <c r="BP7" s="1">
-        <v>1215.480000</v>
+        <v>1215.48</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-495.978000</v>
+        <v>-495.97800000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>57040.841168</v>
+        <v>57040.841167999999</v>
       </c>
       <c r="BT7" s="1">
         <v>15.844678</v>
       </c>
       <c r="BU7" s="1">
-        <v>1338.100000</v>
+        <v>1338.1</v>
       </c>
       <c r="BV7" s="1">
-        <v>-695.442000</v>
+        <v>-695.44200000000001</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>57051.617741</v>
+        <v>57051.617741000002</v>
       </c>
       <c r="BY7" s="1">
-        <v>15.847672</v>
+        <v>15.847671999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1474.620000</v>
+        <v>1474.62</v>
       </c>
       <c r="CA7" s="1">
-        <v>-906.651000</v>
+        <v>-906.65099999999995</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>57063.251900</v>
+        <v>57063.251900000003</v>
       </c>
       <c r="CD7" s="1">
-        <v>15.850903</v>
+        <v>15.850903000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1831.080000</v>
+        <v>1831.08</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1406.410000</v>
+        <v>-1406.41</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>56890.433297</v>
+        <v>56890.433297000003</v>
       </c>
       <c r="B8" s="1">
-        <v>15.802898</v>
+        <v>15.802898000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>899.119000</v>
+        <v>899.11900000000003</v>
       </c>
       <c r="D8" s="1">
-        <v>-196.991000</v>
+        <v>-196.99100000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>56900.524403</v>
+        <v>56900.524403000003</v>
       </c>
       <c r="G8" s="1">
-        <v>15.805701</v>
+        <v>15.805700999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>916.301000</v>
+        <v>916.30100000000004</v>
       </c>
       <c r="I8" s="1">
-        <v>-166.783000</v>
+        <v>-166.78299999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>56910.590215</v>
+        <v>56910.590214999997</v>
       </c>
       <c r="L8" s="1">
-        <v>15.808497</v>
+        <v>15.808496999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>939.587000</v>
+        <v>939.58699999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.620000</v>
+        <v>-118.62</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>56921.458564</v>
       </c>
       <c r="Q8" s="1">
-        <v>15.811516</v>
+        <v>15.811515999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>946.282000</v>
+        <v>946.28200000000004</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.719000</v>
+        <v>-102.71899999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>56932.334366</v>
+        <v>56932.334366000003</v>
       </c>
       <c r="V8" s="1">
         <v>15.814537</v>
       </c>
       <c r="W8" s="1">
-        <v>952.859000</v>
+        <v>952.85900000000004</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.034300</v>
+        <v>-88.034300000000002</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>56942.836619</v>
+        <v>56942.836619000002</v>
       </c>
       <c r="AA8" s="1">
-        <v>15.817455</v>
+        <v>15.817455000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>960.081000</v>
+        <v>960.08100000000002</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.802800</v>
+        <v>-76.802800000000005</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>56953.408845</v>
+        <v>56953.408844999998</v>
       </c>
       <c r="AF8" s="1">
-        <v>15.820391</v>
+        <v>15.820391000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>964.799000</v>
+        <v>964.79899999999998</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.762900</v>
+        <v>-74.762900000000002</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>56963.913119</v>
+        <v>56963.913118999997</v>
       </c>
       <c r="AK8" s="1">
         <v>15.823309</v>
       </c>
       <c r="AL8" s="1">
-        <v>972.074000</v>
+        <v>972.07399999999996</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.730200</v>
+        <v>-79.730199999999996</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>56974.592513</v>
+        <v>56974.592513000003</v>
       </c>
       <c r="AP8" s="1">
         <v>15.826276</v>
       </c>
       <c r="AQ8" s="1">
-        <v>980.302000</v>
+        <v>980.30200000000002</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.515800</v>
+        <v>-91.515799999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>56985.146852</v>
+        <v>56985.146851999998</v>
       </c>
       <c r="AU8" s="1">
         <v>15.829207</v>
       </c>
       <c r="AV8" s="1">
-        <v>990.286000</v>
+        <v>990.28599999999994</v>
       </c>
       <c r="AW8" s="1">
-        <v>-109.421000</v>
+        <v>-109.42100000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>56995.843573</v>
+        <v>56995.843572999998</v>
       </c>
       <c r="AZ8" s="1">
         <v>15.832179</v>
       </c>
       <c r="BA8" s="1">
-        <v>998.714000</v>
+        <v>998.71400000000006</v>
       </c>
       <c r="BB8" s="1">
-        <v>-125.168000</v>
+        <v>-125.16800000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>57006.809127</v>
       </c>
       <c r="BE8" s="1">
-        <v>15.835225</v>
+        <v>15.835224999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1038.070000</v>
+        <v>1038.07</v>
       </c>
       <c r="BG8" s="1">
-        <v>-197.369000</v>
+        <v>-197.369</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>57018.316312</v>
+        <v>57018.316312000003</v>
       </c>
       <c r="BJ8" s="1">
         <v>15.838421</v>
       </c>
       <c r="BK8" s="1">
-        <v>1105.860000</v>
+        <v>1105.8599999999999</v>
       </c>
       <c r="BL8" s="1">
-        <v>-313.717000</v>
+        <v>-313.71699999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>57029.585914</v>
+        <v>57029.585914000003</v>
       </c>
       <c r="BO8" s="1">
         <v>15.841552</v>
       </c>
       <c r="BP8" s="1">
-        <v>1215.470000</v>
+        <v>1215.47</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-495.966000</v>
+        <v>-495.96600000000001</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>57041.271698</v>
+        <v>57041.271697999997</v>
       </c>
       <c r="BT8" s="1">
-        <v>15.844798</v>
+        <v>15.844798000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1338.150000</v>
+        <v>1338.15</v>
       </c>
       <c r="BV8" s="1">
-        <v>-695.407000</v>
+        <v>-695.40700000000004</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>57052.035339</v>
+        <v>57052.035339000002</v>
       </c>
       <c r="BY8" s="1">
         <v>15.847788</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1474.780000</v>
+        <v>1474.78</v>
       </c>
       <c r="CA8" s="1">
-        <v>-906.660000</v>
+        <v>-906.66</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>57063.789531</v>
+        <v>57063.789531000002</v>
       </c>
       <c r="CD8" s="1">
         <v>15.851053</v>
       </c>
       <c r="CE8" s="1">
-        <v>1830.140000</v>
+        <v>1830.14</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1407.540000</v>
+        <v>-1407.54</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>56890.788434</v>
+        <v>56890.788434000002</v>
       </c>
       <c r="B9" s="1">
         <v>15.802997</v>
       </c>
       <c r="C9" s="1">
-        <v>899.214000</v>
+        <v>899.21400000000006</v>
       </c>
       <c r="D9" s="1">
-        <v>-197.007000</v>
+        <v>-197.00700000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>56900.868132</v>
+        <v>56900.868132000003</v>
       </c>
       <c r="G9" s="1">
         <v>15.805797</v>
       </c>
       <c r="H9" s="1">
-        <v>916.318000</v>
+        <v>916.31799999999998</v>
       </c>
       <c r="I9" s="1">
-        <v>-167.133000</v>
+        <v>-167.13300000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>56910.939429</v>
+        <v>56910.939428999998</v>
       </c>
       <c r="L9" s="1">
-        <v>15.808594</v>
+        <v>15.808593999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>939.581000</v>
+        <v>939.58100000000002</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.729000</v>
+        <v>-118.729</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>56922.115784</v>
+        <v>56922.115784000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>15.811699</v>
+        <v>15.811699000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>946.322000</v>
+        <v>946.322</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.785000</v>
+        <v>-102.785</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>56932.722232</v>
       </c>
       <c r="V9" s="1">
-        <v>15.814645</v>
+        <v>15.814645000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>952.877000</v>
+        <v>952.87699999999995</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.090500</v>
+        <v>-88.090500000000006</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>56943.211099</v>
       </c>
       <c r="AA9" s="1">
-        <v>15.817559</v>
+        <v>15.817558999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>960.089000</v>
+        <v>960.08900000000006</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.722900</v>
+        <v>-76.722899999999996</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>56953.752573</v>
+        <v>56953.752572999998</v>
       </c>
       <c r="AF9" s="1">
         <v>15.820487</v>
       </c>
       <c r="AG9" s="1">
-        <v>964.779000</v>
+        <v>964.779</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.761500</v>
+        <v>-74.761499999999998</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>56964.262799</v>
+        <v>56964.262798999996</v>
       </c>
       <c r="AK9" s="1">
         <v>15.823406</v>
       </c>
       <c r="AL9" s="1">
-        <v>972.075000</v>
+        <v>972.07500000000005</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.725400</v>
+        <v>-79.725399999999993</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>56974.951619</v>
+        <v>56974.951618999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>15.826375</v>
+        <v>15.826375000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>980.282000</v>
+        <v>980.28200000000004</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.544500</v>
+        <v>-91.544499999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>56985.578867</v>
+        <v>56985.578866999997</v>
       </c>
       <c r="AU9" s="1">
-        <v>15.829327</v>
+        <v>15.829326999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>990.288000</v>
+        <v>990.28800000000001</v>
       </c>
       <c r="AW9" s="1">
-        <v>-109.416000</v>
+        <v>-109.416</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>56996.129765</v>
+        <v>56996.129764999998</v>
       </c>
       <c r="AZ9" s="1">
-        <v>15.832258</v>
+        <v>15.832257999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>998.709000</v>
+        <v>998.70899999999995</v>
       </c>
       <c r="BB9" s="1">
-        <v>-125.158000</v>
+        <v>-125.158</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>57007.102760</v>
+        <v>57007.102760000002</v>
       </c>
       <c r="BE9" s="1">
-        <v>15.835306</v>
+        <v>15.835305999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1038.060000</v>
+        <v>1038.06</v>
       </c>
       <c r="BG9" s="1">
-        <v>-197.383000</v>
+        <v>-197.38300000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>57018.691783</v>
+        <v>57018.691783000002</v>
       </c>
       <c r="BJ9" s="1">
-        <v>15.838525</v>
+        <v>15.838525000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1105.880000</v>
+        <v>1105.8800000000001</v>
       </c>
       <c r="BL9" s="1">
-        <v>-313.707000</v>
+        <v>-313.70699999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>57030.004536</v>
@@ -2475,285 +2891,285 @@
         <v>15.841668</v>
       </c>
       <c r="BP9" s="1">
-        <v>1215.470000</v>
+        <v>1215.47</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-495.956000</v>
+        <v>-495.95600000000002</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>57041.701195</v>
+        <v>57041.701195000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>15.844917</v>
+        <v>15.844917000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1338.220000</v>
+        <v>1338.22</v>
       </c>
       <c r="BV9" s="1">
-        <v>-695.369000</v>
+        <v>-695.36900000000003</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>57052.477808</v>
+        <v>57052.477808000003</v>
       </c>
       <c r="BY9" s="1">
         <v>15.847911</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1474.710000</v>
+        <v>1474.71</v>
       </c>
       <c r="CA9" s="1">
-        <v>-906.504000</v>
+        <v>-906.50400000000002</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>57064.332155</v>
+        <v>57064.332154999996</v>
       </c>
       <c r="CD9" s="1">
         <v>15.851203</v>
       </c>
       <c r="CE9" s="1">
-        <v>1831.560000</v>
+        <v>1831.56</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1407.810000</v>
+        <v>-1407.81</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>56891.131169</v>
       </c>
       <c r="B10" s="1">
-        <v>15.803092</v>
+        <v>15.803091999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>899.212000</v>
+        <v>899.21199999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-197.074000</v>
+        <v>-197.07400000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>56901.534755</v>
+        <v>56901.534755000001</v>
       </c>
       <c r="G10" s="1">
         <v>15.805982</v>
       </c>
       <c r="H10" s="1">
-        <v>916.520000</v>
+        <v>916.52</v>
       </c>
       <c r="I10" s="1">
-        <v>-166.575000</v>
+        <v>-166.57499999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>56911.597093</v>
+        <v>56911.597092999997</v>
       </c>
       <c r="L10" s="1">
-        <v>15.808777</v>
+        <v>15.808776999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>939.647000</v>
+        <v>939.64700000000005</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.810000</v>
+        <v>-118.81</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>56922.504118</v>
+        <v>56922.504117999997</v>
       </c>
       <c r="Q10" s="1">
         <v>15.811807</v>
       </c>
       <c r="R10" s="1">
-        <v>946.295000</v>
+        <v>946.29499999999996</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.768000</v>
+        <v>-102.768</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>56933.065929</v>
+        <v>56933.065928999997</v>
       </c>
       <c r="V10" s="1">
         <v>15.814741</v>
       </c>
       <c r="W10" s="1">
-        <v>952.797000</v>
+        <v>952.79700000000003</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.160800</v>
+        <v>-88.160799999999995</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>56943.562763</v>
+        <v>56943.562763000002</v>
       </c>
       <c r="AA10" s="1">
-        <v>15.817656</v>
+        <v>15.817655999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>960.039000</v>
+        <v>960.03899999999999</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.828200</v>
+        <v>-76.828199999999995</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>56954.102749</v>
+        <v>56954.102748999998</v>
       </c>
       <c r="AF10" s="1">
         <v>15.820584</v>
       </c>
       <c r="AG10" s="1">
-        <v>964.806000</v>
+        <v>964.80600000000004</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.761100</v>
+        <v>-74.761099999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>56964.685923</v>
+        <v>56964.685922999997</v>
       </c>
       <c r="AK10" s="1">
-        <v>15.823524</v>
+        <v>15.823524000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>972.106000</v>
+        <v>972.10599999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.709100</v>
+        <v>-79.709100000000007</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>56975.382144</v>
+        <v>56975.382144000003</v>
       </c>
       <c r="AP10" s="1">
         <v>15.826495</v>
       </c>
       <c r="AQ10" s="1">
-        <v>980.283000</v>
+        <v>980.28300000000002</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.539900</v>
+        <v>-91.539900000000003</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>56985.876499</v>
+        <v>56985.876498999998</v>
       </c>
       <c r="AU10" s="1">
-        <v>15.829410</v>
+        <v>15.829409999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>990.306000</v>
+        <v>990.30600000000004</v>
       </c>
       <c r="AW10" s="1">
-        <v>-109.412000</v>
+        <v>-109.41200000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>56996.477957</v>
+        <v>56996.477957000003</v>
       </c>
       <c r="AZ10" s="1">
         <v>15.832355</v>
       </c>
       <c r="BA10" s="1">
-        <v>998.711000</v>
+        <v>998.71100000000001</v>
       </c>
       <c r="BB10" s="1">
-        <v>-125.160000</v>
+        <v>-125.16</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>57007.470294</v>
+        <v>57007.470293999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>15.835408</v>
+        <v>15.835407999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1038.070000</v>
+        <v>1038.07</v>
       </c>
       <c r="BG10" s="1">
-        <v>-197.379000</v>
+        <v>-197.37899999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>57019.067750</v>
+        <v>57019.067750000002</v>
       </c>
       <c r="BJ10" s="1">
-        <v>15.838630</v>
+        <v>15.83863</v>
       </c>
       <c r="BK10" s="1">
-        <v>1105.880000</v>
+        <v>1105.8800000000001</v>
       </c>
       <c r="BL10" s="1">
-        <v>-313.743000</v>
+        <v>-313.74299999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>57030.831399</v>
+        <v>57030.831399000002</v>
       </c>
       <c r="BO10" s="1">
         <v>15.841898</v>
       </c>
       <c r="BP10" s="1">
-        <v>1215.490000</v>
+        <v>1215.49</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-495.984000</v>
+        <v>-495.98399999999998</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>57042.126760</v>
+        <v>57042.126759999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>15.845035</v>
+        <v>15.845034999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1338.280000</v>
+        <v>1338.28</v>
       </c>
       <c r="BV10" s="1">
-        <v>-695.346000</v>
+        <v>-695.346</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>57052.903369</v>
@@ -2762,165 +3178,165 @@
         <v>15.848029</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1474.650000</v>
+        <v>1474.65</v>
       </c>
       <c r="CA10" s="1">
-        <v>-906.575000</v>
+        <v>-906.57500000000005</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>57064.871838</v>
+        <v>57064.871837999999</v>
       </c>
       <c r="CD10" s="1">
         <v>15.851353</v>
       </c>
       <c r="CE10" s="1">
-        <v>1830.000000</v>
+        <v>1830</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1406.630000</v>
+        <v>-1406.63</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>56891.804271</v>
+        <v>56891.804271000001</v>
       </c>
       <c r="B11" s="1">
         <v>15.803279</v>
       </c>
       <c r="C11" s="1">
-        <v>899.273000</v>
+        <v>899.27300000000002</v>
       </c>
       <c r="D11" s="1">
-        <v>-197.055000</v>
+        <v>-197.05500000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>56901.781267</v>
+        <v>56901.781266999998</v>
       </c>
       <c r="G11" s="1">
-        <v>15.806050</v>
+        <v>15.806050000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>916.742000</v>
+        <v>916.74199999999996</v>
       </c>
       <c r="I11" s="1">
-        <v>-166.846000</v>
+        <v>-166.846</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>56911.973102</v>
+        <v>56911.973102000004</v>
       </c>
       <c r="L11" s="1">
         <v>15.808881</v>
       </c>
       <c r="M11" s="1">
-        <v>939.608000</v>
+        <v>939.60799999999995</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.773000</v>
+        <v>-118.773</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>56922.855783</v>
+        <v>56922.855782999999</v>
       </c>
       <c r="Q11" s="1">
         <v>15.811904</v>
       </c>
       <c r="R11" s="1">
-        <v>946.279000</v>
+        <v>946.279</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.771000</v>
+        <v>-102.771</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>56933.412632</v>
       </c>
       <c r="V11" s="1">
-        <v>15.814837</v>
+        <v>15.814837000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>952.840000</v>
+        <v>952.84</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.042800</v>
+        <v>-88.0428</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>56943.911486</v>
+        <v>56943.911485999997</v>
       </c>
       <c r="AA11" s="1">
         <v>15.817753</v>
       </c>
       <c r="AB11" s="1">
-        <v>960.037000</v>
+        <v>960.03700000000003</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.809200</v>
+        <v>-76.809200000000004</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>56954.524348</v>
+        <v>56954.524347999999</v>
       </c>
       <c r="AF11" s="1">
         <v>15.820701</v>
       </c>
       <c r="AG11" s="1">
-        <v>964.800000</v>
+        <v>964.8</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.742800</v>
+        <v>-74.742800000000003</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>56964.959216</v>
+        <v>56964.959216000003</v>
       </c>
       <c r="AK11" s="1">
-        <v>15.823600</v>
+        <v>15.823600000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>972.087000</v>
+        <v>972.08699999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.731300</v>
+        <v>-79.731300000000005</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>56975.672803</v>
+        <v>56975.672803000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>15.826576</v>
+        <v>15.826575999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>980.290000</v>
+        <v>980.29</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.537000</v>
+        <v>-91.537000000000006</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>56986.240565</v>
@@ -2929,121 +3345,121 @@
         <v>15.829511</v>
       </c>
       <c r="AV11" s="1">
-        <v>990.297000</v>
+        <v>990.29700000000003</v>
       </c>
       <c r="AW11" s="1">
-        <v>-109.406000</v>
+        <v>-109.40600000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>56996.848468</v>
+        <v>56996.848467999997</v>
       </c>
       <c r="AZ11" s="1">
-        <v>15.832458</v>
+        <v>15.832458000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>998.707000</v>
+        <v>998.70699999999999</v>
       </c>
       <c r="BB11" s="1">
-        <v>-125.165000</v>
+        <v>-125.16500000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>57007.828405</v>
       </c>
       <c r="BE11" s="1">
-        <v>15.835508</v>
+        <v>15.835508000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1038.070000</v>
+        <v>1038.07</v>
       </c>
       <c r="BG11" s="1">
-        <v>-197.367000</v>
+        <v>-197.36699999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>57019.819687</v>
+        <v>57019.819687000003</v>
       </c>
       <c r="BJ11" s="1">
         <v>15.838839</v>
       </c>
       <c r="BK11" s="1">
-        <v>1105.900000</v>
+        <v>1105.9000000000001</v>
       </c>
       <c r="BL11" s="1">
-        <v>-313.722000</v>
+        <v>-313.72199999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>57031.241095</v>
+        <v>57031.241094999998</v>
       </c>
       <c r="BO11" s="1">
-        <v>15.842011</v>
+        <v>15.842010999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1215.510000</v>
+        <v>1215.51</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-495.981000</v>
+        <v>-495.98099999999999</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>57042.537944</v>
+        <v>57042.537944000003</v>
       </c>
       <c r="BT11" s="1">
-        <v>15.845149</v>
+        <v>15.845148999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1338.330000</v>
+        <v>1338.33</v>
       </c>
       <c r="BV11" s="1">
-        <v>-695.354000</v>
+        <v>-695.35400000000004</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>57053.325941</v>
+        <v>57053.325941000003</v>
       </c>
       <c r="BY11" s="1">
         <v>15.848146</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1474.670000</v>
+        <v>1474.67</v>
       </c>
       <c r="CA11" s="1">
-        <v>-906.658000</v>
+        <v>-906.65800000000002</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>57065.721945</v>
+        <v>57065.721944999998</v>
       </c>
       <c r="CD11" s="1">
-        <v>15.851589</v>
+        <v>15.851589000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1831.310000</v>
+        <v>1831.31</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1406.970000</v>
+        <v>-1406.97</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>56892.152941</v>
       </c>
@@ -3051,193 +3467,193 @@
         <v>15.803376</v>
       </c>
       <c r="C12" s="1">
-        <v>899.300000</v>
+        <v>899.3</v>
       </c>
       <c r="D12" s="1">
-        <v>-196.959000</v>
+        <v>-196.959</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>56902.129955</v>
+        <v>56902.129954999997</v>
       </c>
       <c r="G12" s="1">
-        <v>15.806147</v>
+        <v>15.806146999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>916.984000</v>
+        <v>916.98400000000004</v>
       </c>
       <c r="I12" s="1">
-        <v>-166.537000</v>
+        <v>-166.53700000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>56912.320292</v>
+        <v>56912.320291999997</v>
       </c>
       <c r="L12" s="1">
         <v>15.808978</v>
       </c>
       <c r="M12" s="1">
-        <v>939.591000</v>
+        <v>939.59100000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.678000</v>
+        <v>-118.678</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>56923.201989</v>
+        <v>56923.201989000001</v>
       </c>
       <c r="Q12" s="1">
         <v>15.812001</v>
       </c>
       <c r="R12" s="1">
-        <v>946.266000</v>
+        <v>946.26599999999996</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.735000</v>
+        <v>-102.735</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>56933.851591</v>
+        <v>56933.851590999999</v>
       </c>
       <c r="V12" s="1">
         <v>15.814959</v>
       </c>
       <c r="W12" s="1">
-        <v>952.799000</v>
+        <v>952.79899999999998</v>
       </c>
       <c r="X12" s="1">
-        <v>-87.962500</v>
+        <v>-87.962500000000006</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>56944.329083</v>
+        <v>56944.329082999997</v>
       </c>
       <c r="AA12" s="1">
         <v>15.817869</v>
       </c>
       <c r="AB12" s="1">
-        <v>960.031000</v>
+        <v>960.03099999999995</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.756000</v>
+        <v>-76.756</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>56954.803101</v>
+        <v>56954.803100999998</v>
       </c>
       <c r="AF12" s="1">
         <v>15.820779</v>
       </c>
       <c r="AG12" s="1">
-        <v>964.799000</v>
+        <v>964.79899999999998</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.858800</v>
+        <v>-74.858800000000002</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>56965.305887</v>
+        <v>56965.305887000002</v>
       </c>
       <c r="AK12" s="1">
         <v>15.823696</v>
       </c>
       <c r="AL12" s="1">
-        <v>972.087000</v>
+        <v>972.08699999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.748000</v>
+        <v>-79.748000000000005</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>56976.032895</v>
+        <v>56976.032894999997</v>
       </c>
       <c r="AP12" s="1">
-        <v>15.826676</v>
+        <v>15.826676000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>980.283000</v>
+        <v>980.28300000000002</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.531100</v>
+        <v>-91.531099999999995</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>56986.607114</v>
+        <v>56986.607113999999</v>
       </c>
       <c r="AU12" s="1">
         <v>15.829613</v>
       </c>
       <c r="AV12" s="1">
-        <v>990.306000</v>
+        <v>990.30600000000004</v>
       </c>
       <c r="AW12" s="1">
-        <v>-109.396000</v>
+        <v>-109.396</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>56997.565187</v>
       </c>
       <c r="AZ12" s="1">
-        <v>15.832657</v>
+        <v>15.832656999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>998.721000</v>
+        <v>998.721</v>
       </c>
       <c r="BB12" s="1">
-        <v>-125.149000</v>
+        <v>-125.149</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>57008.548629</v>
+        <v>57008.548628999997</v>
       </c>
       <c r="BE12" s="1">
         <v>15.835708</v>
       </c>
       <c r="BF12" s="1">
-        <v>1038.060000</v>
+        <v>1038.06</v>
       </c>
       <c r="BG12" s="1">
-        <v>-197.366000</v>
+        <v>-197.36600000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>57020.192677</v>
+        <v>57020.192676999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>15.838942</v>
+        <v>15.838941999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1105.850000</v>
+        <v>1105.8499999999999</v>
       </c>
       <c r="BL12" s="1">
-        <v>-313.734000</v>
+        <v>-313.73399999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>57031.637894</v>
@@ -3246,195 +3662,195 @@
         <v>15.842122</v>
       </c>
       <c r="BP12" s="1">
-        <v>1215.470000</v>
+        <v>1215.47</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-495.916000</v>
+        <v>-495.916</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>57042.971448</v>
+        <v>57042.971447999997</v>
       </c>
       <c r="BT12" s="1">
-        <v>15.845270</v>
+        <v>15.845269999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1338.390000</v>
+        <v>1338.39</v>
       </c>
       <c r="BV12" s="1">
-        <v>-695.358000</v>
+        <v>-695.35799999999995</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>57054.096713</v>
+        <v>57054.096712999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>15.848360</v>
+        <v>15.84836</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1474.690000</v>
+        <v>1474.69</v>
       </c>
       <c r="CA12" s="1">
-        <v>-906.620000</v>
+        <v>-906.62</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>57065.949113</v>
+        <v>57065.949113000002</v>
       </c>
       <c r="CD12" s="1">
-        <v>15.851653</v>
+        <v>15.851653000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1831.840000</v>
+        <v>1831.84</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1407.100000</v>
+        <v>-1407.1</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>56892.502637</v>
+        <v>56892.502636999998</v>
       </c>
       <c r="B13" s="1">
         <v>15.803473</v>
       </c>
       <c r="C13" s="1">
-        <v>899.160000</v>
+        <v>899.16</v>
       </c>
       <c r="D13" s="1">
-        <v>-196.916000</v>
+        <v>-196.916</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>56902.480666</v>
+        <v>56902.480666000003</v>
       </c>
       <c r="G13" s="1">
-        <v>15.806245</v>
+        <v>15.806245000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>916.639000</v>
+        <v>916.63900000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-166.928000</v>
+        <v>-166.928</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>56912.664484</v>
+        <v>56912.664484000001</v>
       </c>
       <c r="L13" s="1">
         <v>15.809073</v>
       </c>
       <c r="M13" s="1">
-        <v>939.562000</v>
+        <v>939.56200000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.674000</v>
+        <v>-118.67400000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>56923.640949</v>
+        <v>56923.640949000001</v>
       </c>
       <c r="Q13" s="1">
         <v>15.812122</v>
       </c>
       <c r="R13" s="1">
-        <v>946.292000</v>
+        <v>946.29200000000003</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.743000</v>
+        <v>-102.74299999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>56934.127367</v>
+        <v>56934.127367000001</v>
       </c>
       <c r="V13" s="1">
         <v>15.815035</v>
       </c>
       <c r="W13" s="1">
-        <v>952.944000</v>
+        <v>952.94399999999996</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.122000</v>
+        <v>-88.122</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>56944.608337</v>
+        <v>56944.608336999998</v>
       </c>
       <c r="AA13" s="1">
         <v>15.817947</v>
       </c>
       <c r="AB13" s="1">
-        <v>960.015000</v>
+        <v>960.01499999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.769500</v>
+        <v>-76.769499999999994</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>56955.148315</v>
+        <v>56955.148314999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>15.820875</v>
+        <v>15.820874999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>964.787000</v>
+        <v>964.78700000000003</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.742000</v>
+        <v>-74.742000000000004</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>56965.655567</v>
+        <v>56965.655567000002</v>
       </c>
       <c r="AK13" s="1">
         <v>15.823793</v>
       </c>
       <c r="AL13" s="1">
-        <v>972.093000</v>
+        <v>972.09299999999996</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.724000</v>
+        <v>-79.724000000000004</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>56976.391967</v>
+        <v>56976.391967000003</v>
       </c>
       <c r="AP13" s="1">
-        <v>15.826776</v>
+        <v>15.826776000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>980.299000</v>
+        <v>980.29899999999998</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.518500</v>
+        <v>-91.518500000000003</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>56987.334208</v>
@@ -3443,195 +3859,195 @@
         <v>15.829815</v>
       </c>
       <c r="AV13" s="1">
-        <v>990.299000</v>
+        <v>990.29899999999998</v>
       </c>
       <c r="AW13" s="1">
-        <v>-109.406000</v>
+        <v>-109.40600000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>56997.923831</v>
       </c>
       <c r="AZ13" s="1">
-        <v>15.832757</v>
+        <v>15.832757000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>998.723000</v>
+        <v>998.72299999999996</v>
       </c>
       <c r="BB13" s="1">
-        <v>-125.162000</v>
+        <v>-125.16200000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>57008.910676</v>
       </c>
       <c r="BE13" s="1">
-        <v>15.835809</v>
+        <v>15.835808999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1038.080000</v>
+        <v>1038.08</v>
       </c>
       <c r="BG13" s="1">
-        <v>-197.370000</v>
+        <v>-197.37</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>57020.569638</v>
+        <v>57020.569638000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>15.839047</v>
+        <v>15.839047000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1105.860000</v>
+        <v>1105.8599999999999</v>
       </c>
       <c r="BL13" s="1">
-        <v>-313.768000</v>
+        <v>-313.76799999999997</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>57032.367513</v>
+        <v>57032.367512999997</v>
       </c>
       <c r="BO13" s="1">
         <v>15.842324</v>
       </c>
       <c r="BP13" s="1">
-        <v>1215.490000</v>
+        <v>1215.49</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-495.954000</v>
+        <v>-495.95400000000001</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>57043.696102</v>
+        <v>57043.696102000002</v>
       </c>
       <c r="BT13" s="1">
         <v>15.845471</v>
       </c>
       <c r="BU13" s="1">
-        <v>1338.370000</v>
+        <v>1338.37</v>
       </c>
       <c r="BV13" s="1">
-        <v>-695.232000</v>
+        <v>-695.23199999999997</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>57054.206861</v>
+        <v>57054.206860999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>15.848391</v>
+        <v>15.848390999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1474.760000</v>
+        <v>1474.76</v>
       </c>
       <c r="CA13" s="1">
-        <v>-906.678000</v>
+        <v>-906.678</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>57066.468920</v>
+        <v>57066.468919999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>15.851797</v>
+        <v>15.851796999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1830.460000</v>
+        <v>1830.46</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1406.410000</v>
+        <v>-1406.41</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>56892.843891</v>
+        <v>56892.843890999997</v>
       </c>
       <c r="B14" s="1">
         <v>15.803568</v>
       </c>
       <c r="C14" s="1">
-        <v>899.068000</v>
+        <v>899.06799999999998</v>
       </c>
       <c r="D14" s="1">
-        <v>-197.109000</v>
+        <v>-197.10900000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>56902.905234</v>
+        <v>56902.905233999998</v>
       </c>
       <c r="G14" s="1">
-        <v>15.806363</v>
+        <v>15.806362999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>916.697000</v>
+        <v>916.697</v>
       </c>
       <c r="I14" s="1">
-        <v>-166.940000</v>
+        <v>-166.94</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>56913.402532</v>
       </c>
       <c r="L14" s="1">
-        <v>15.809278</v>
+        <v>15.809278000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>939.465000</v>
+        <v>939.46500000000003</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.698000</v>
+        <v>-118.69799999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>56923.898372</v>
+        <v>56923.898372000003</v>
       </c>
       <c r="Q14" s="1">
         <v>15.812194</v>
       </c>
       <c r="R14" s="1">
-        <v>946.288000</v>
+        <v>946.28800000000001</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.764000</v>
+        <v>-102.764</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>56934.471623</v>
+        <v>56934.471622999998</v>
       </c>
       <c r="V14" s="1">
-        <v>15.815131</v>
+        <v>15.815130999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>952.829000</v>
+        <v>952.82899999999995</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.002700</v>
+        <v>-88.002700000000004</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>56944.957016</v>
@@ -3640,133 +4056,133 @@
         <v>15.818044</v>
       </c>
       <c r="AB14" s="1">
-        <v>960.096000</v>
+        <v>960.096</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.793700</v>
+        <v>-76.793700000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>56955.492044</v>
+        <v>56955.492043999999</v>
       </c>
       <c r="AF14" s="1">
-        <v>15.820970</v>
+        <v>15.820970000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>964.954000</v>
+        <v>964.95399999999995</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.693500</v>
+        <v>-74.6935</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>56966.351948</v>
+        <v>56966.351948000003</v>
       </c>
       <c r="AK14" s="1">
-        <v>15.823987</v>
+        <v>15.823987000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>972.078000</v>
+        <v>972.07799999999997</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.717200</v>
+        <v>-79.717200000000005</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>56977.113647</v>
+        <v>56977.113646999998</v>
       </c>
       <c r="AP14" s="1">
         <v>15.826976</v>
       </c>
       <c r="AQ14" s="1">
-        <v>980.311000</v>
+        <v>980.31100000000004</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.536500</v>
+        <v>-91.536500000000004</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>56987.699798</v>
+        <v>56987.699798000001</v>
       </c>
       <c r="AU14" s="1">
         <v>15.829917</v>
       </c>
       <c r="AV14" s="1">
-        <v>990.301000</v>
+        <v>990.30100000000004</v>
       </c>
       <c r="AW14" s="1">
-        <v>-109.418000</v>
+        <v>-109.41800000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>56998.283890</v>
+        <v>56998.283889999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>15.832857</v>
+        <v>15.832857000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>998.696000</v>
+        <v>998.69600000000003</v>
       </c>
       <c r="BB14" s="1">
-        <v>-125.167000</v>
+        <v>-125.167</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>57009.273283</v>
+        <v>57009.273283000002</v>
       </c>
       <c r="BE14" s="1">
-        <v>15.835909</v>
+        <v>15.835908999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1038.080000</v>
+        <v>1038.08</v>
       </c>
       <c r="BG14" s="1">
-        <v>-197.377000</v>
+        <v>-197.37700000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>57021.263540</v>
+        <v>57021.26354</v>
       </c>
       <c r="BJ14" s="1">
-        <v>15.839240</v>
+        <v>15.83924</v>
       </c>
       <c r="BK14" s="1">
-        <v>1105.860000</v>
+        <v>1105.8599999999999</v>
       </c>
       <c r="BL14" s="1">
-        <v>-313.758000</v>
+        <v>-313.75799999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>57032.484037</v>
+        <v>57032.484037000002</v>
       </c>
       <c r="BO14" s="1">
         <v>15.842357</v>
       </c>
       <c r="BP14" s="1">
-        <v>1215.490000</v>
+        <v>1215.49</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-495.986000</v>
+        <v>-495.98599999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>57043.821591</v>
@@ -3775,240 +4191,240 @@
         <v>15.845506</v>
       </c>
       <c r="BU14" s="1">
-        <v>1338.430000</v>
+        <v>1338.43</v>
       </c>
       <c r="BV14" s="1">
-        <v>-695.202000</v>
+        <v>-695.202</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>57054.645288</v>
       </c>
       <c r="BY14" s="1">
-        <v>15.848513</v>
+        <v>15.848513000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1474.720000</v>
+        <v>1474.72</v>
       </c>
       <c r="CA14" s="1">
-        <v>-906.519000</v>
+        <v>-906.51900000000001</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>57066.986775</v>
+        <v>57066.986774999998</v>
       </c>
       <c r="CD14" s="1">
         <v>15.851941</v>
       </c>
       <c r="CE14" s="1">
-        <v>1830.930000</v>
+        <v>1830.93</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1406.700000</v>
+        <v>-1406.7</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>56893.272925</v>
+        <v>56893.272924999997</v>
       </c>
       <c r="B15" s="1">
         <v>15.803687</v>
       </c>
       <c r="C15" s="1">
-        <v>899.290000</v>
+        <v>899.29</v>
       </c>
       <c r="D15" s="1">
-        <v>-197.034000</v>
+        <v>-197.03399999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>56903.180977</v>
+        <v>56903.180977000004</v>
       </c>
       <c r="G15" s="1">
-        <v>15.806439</v>
+        <v>15.806438999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>916.211000</v>
+        <v>916.21100000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-166.593000</v>
+        <v>-166.59299999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>56913.731410</v>
+        <v>56913.73141</v>
       </c>
       <c r="L15" s="1">
-        <v>15.809370</v>
+        <v>15.809369999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>939.624000</v>
+        <v>939.62400000000002</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.778000</v>
+        <v>-118.77800000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>56924.250069</v>
+        <v>56924.250069000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>15.812292</v>
+        <v>15.812291999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>946.309000</v>
+        <v>946.30899999999997</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.795000</v>
+        <v>-102.795</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>56934.821766</v>
+        <v>56934.821766000001</v>
       </c>
       <c r="V15" s="1">
-        <v>15.815228</v>
+        <v>15.815227999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>952.949000</v>
+        <v>952.94899999999996</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.054200</v>
+        <v>-88.054199999999994</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>56945.306696</v>
       </c>
       <c r="AA15" s="1">
-        <v>15.818141</v>
+        <v>15.818141000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>960.063000</v>
+        <v>960.06299999999999</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.812900</v>
+        <v>-76.812899999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>56956.178505</v>
+        <v>56956.178505000003</v>
       </c>
       <c r="AF15" s="1">
         <v>15.821161</v>
       </c>
       <c r="AG15" s="1">
-        <v>964.635000</v>
+        <v>964.63499999999999</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.839800</v>
+        <v>-74.839799999999997</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>56966.703611</v>
+        <v>56966.703610999997</v>
       </c>
       <c r="AK15" s="1">
-        <v>15.824084</v>
+        <v>15.824083999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>972.097000</v>
+        <v>972.09699999999998</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.720400</v>
+        <v>-79.720399999999998</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>56977.476222</v>
+        <v>56977.476221999998</v>
       </c>
       <c r="AP15" s="1">
-        <v>15.827077</v>
+        <v>15.827076999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>980.289000</v>
+        <v>980.28899999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.519900</v>
+        <v>-91.519900000000007</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>56988.062833</v>
+        <v>56988.062833000004</v>
       </c>
       <c r="AU15" s="1">
         <v>15.830017</v>
       </c>
       <c r="AV15" s="1">
-        <v>990.302000</v>
+        <v>990.30200000000002</v>
       </c>
       <c r="AW15" s="1">
-        <v>-109.402000</v>
+        <v>-109.402</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>56998.957954</v>
+        <v>56998.957953999998</v>
       </c>
       <c r="AZ15" s="1">
-        <v>15.833044</v>
+        <v>15.833043999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>998.719000</v>
+        <v>998.71900000000005</v>
       </c>
       <c r="BB15" s="1">
-        <v>-125.156000</v>
+        <v>-125.15600000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>57009.964677</v>
+        <v>57009.964677000004</v>
       </c>
       <c r="BE15" s="1">
-        <v>15.836101</v>
+        <v>15.836100999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1038.080000</v>
+        <v>1038.08</v>
       </c>
       <c r="BG15" s="1">
-        <v>-197.385000</v>
+        <v>-197.38499999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>57021.695061</v>
+        <v>57021.695060999999</v>
       </c>
       <c r="BJ15" s="1">
-        <v>15.839360</v>
+        <v>15.839359999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1105.920000</v>
+        <v>1105.92</v>
       </c>
       <c r="BL15" s="1">
-        <v>-313.715000</v>
+        <v>-313.71499999999997</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>57032.879384</v>
@@ -4017,28 +4433,28 @@
         <v>15.842466</v>
       </c>
       <c r="BP15" s="1">
-        <v>1215.480000</v>
+        <v>1215.48</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-495.974000</v>
+        <v>-495.97399999999999</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>57044.252152</v>
+        <v>57044.252152000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>15.845626</v>
+        <v>15.845625999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1338.470000</v>
+        <v>1338.47</v>
       </c>
       <c r="BV15" s="1">
-        <v>-695.085000</v>
+        <v>-695.08500000000004</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>57055.101144</v>
@@ -4047,90 +4463,90 @@
         <v>15.848639</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1474.700000</v>
+        <v>1474.7</v>
       </c>
       <c r="CA15" s="1">
-        <v>-906.561000</v>
+        <v>-906.56100000000004</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>57067.537319</v>
+        <v>57067.537319000003</v>
       </c>
       <c r="CD15" s="1">
-        <v>15.852094</v>
+        <v>15.852093999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1831.640000</v>
+        <v>1831.64</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1407.090000</v>
+        <v>-1407.09</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>56893.540274</v>
+        <v>56893.540273999999</v>
       </c>
       <c r="B16" s="1">
         <v>15.803761</v>
       </c>
       <c r="C16" s="1">
-        <v>899.373000</v>
+        <v>899.37300000000005</v>
       </c>
       <c r="D16" s="1">
-        <v>-197.124000</v>
+        <v>-197.124</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>56903.529167</v>
+        <v>56903.529167000001</v>
       </c>
       <c r="G16" s="1">
-        <v>15.806536</v>
+        <v>15.806535999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>916.445000</v>
+        <v>916.44500000000005</v>
       </c>
       <c r="I16" s="1">
-        <v>-166.603000</v>
+        <v>-166.60300000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>56914.075105</v>
+        <v>56914.075105000004</v>
       </c>
       <c r="L16" s="1">
-        <v>15.809465</v>
+        <v>15.809464999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>939.561000</v>
+        <v>939.56100000000004</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.758000</v>
+        <v>-118.758</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>56924.598756</v>
+        <v>56924.598755999999</v>
       </c>
       <c r="Q16" s="1">
         <v>15.812389</v>
       </c>
       <c r="R16" s="1">
-        <v>946.242000</v>
+        <v>946.24199999999996</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.777000</v>
+        <v>-102.777</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>56935.508725</v>
@@ -4139,390 +4555,390 @@
         <v>15.815419</v>
       </c>
       <c r="W16" s="1">
-        <v>952.950000</v>
+        <v>952.95</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.103800</v>
+        <v>-88.103800000000007</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>56946.004604</v>
+        <v>56946.004604000002</v>
       </c>
       <c r="AA16" s="1">
-        <v>15.818335</v>
+        <v>15.818334999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>960.024000</v>
+        <v>960.024</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.853300</v>
+        <v>-76.853300000000004</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>56956.524250</v>
+        <v>56956.524250000002</v>
       </c>
       <c r="AF16" s="1">
-        <v>15.821257</v>
+        <v>15.821256999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>964.585000</v>
+        <v>964.58500000000004</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.672200</v>
+        <v>-74.672200000000004</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>56967.050811</v>
+        <v>56967.050811000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>15.824181</v>
+        <v>15.824180999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>972.088000</v>
+        <v>972.08799999999997</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.759300</v>
+        <v>-79.759299999999996</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>56977.833378</v>
+        <v>56977.833378000003</v>
       </c>
       <c r="AP16" s="1">
         <v>15.827176</v>
       </c>
       <c r="AQ16" s="1">
-        <v>980.293000</v>
+        <v>980.29300000000001</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.528400</v>
+        <v>-91.528400000000005</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>56988.741391</v>
+        <v>56988.741391000003</v>
       </c>
       <c r="AU16" s="1">
         <v>15.830206</v>
       </c>
       <c r="AV16" s="1">
-        <v>990.333000</v>
+        <v>990.33299999999997</v>
       </c>
       <c r="AW16" s="1">
-        <v>-109.417000</v>
+        <v>-109.417</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>56999.379552</v>
+        <v>56999.379551999999</v>
       </c>
       <c r="AZ16" s="1">
         <v>15.833161</v>
       </c>
       <c r="BA16" s="1">
-        <v>998.731000</v>
+        <v>998.73099999999999</v>
       </c>
       <c r="BB16" s="1">
-        <v>-125.141000</v>
+        <v>-125.14100000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>57010.377347</v>
+        <v>57010.377347000001</v>
       </c>
       <c r="BE16" s="1">
         <v>15.836216</v>
       </c>
       <c r="BF16" s="1">
-        <v>1038.080000</v>
+        <v>1038.08</v>
       </c>
       <c r="BG16" s="1">
-        <v>-197.364000</v>
+        <v>-197.364</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>57022.069538</v>
+        <v>57022.069538000003</v>
       </c>
       <c r="BJ16" s="1">
         <v>15.839464</v>
       </c>
       <c r="BK16" s="1">
-        <v>1105.890000</v>
+        <v>1105.8900000000001</v>
       </c>
       <c r="BL16" s="1">
-        <v>-313.694000</v>
+        <v>-313.69400000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>57033.302472</v>
+        <v>57033.302472000003</v>
       </c>
       <c r="BO16" s="1">
         <v>15.842584</v>
       </c>
       <c r="BP16" s="1">
-        <v>1215.450000</v>
+        <v>1215.45</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-495.966000</v>
+        <v>-495.96600000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>57044.678678</v>
+        <v>57044.678677999997</v>
       </c>
       <c r="BT16" s="1">
         <v>15.845744</v>
       </c>
       <c r="BU16" s="1">
-        <v>1338.420000</v>
+        <v>1338.42</v>
       </c>
       <c r="BV16" s="1">
-        <v>-695.130000</v>
+        <v>-695.13</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>57055.548998</v>
+        <v>57055.548997999998</v>
       </c>
       <c r="BY16" s="1">
-        <v>15.848764</v>
+        <v>15.848763999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1474.760000</v>
+        <v>1474.76</v>
       </c>
       <c r="CA16" s="1">
-        <v>-906.684000</v>
+        <v>-906.68399999999997</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>57068.068519</v>
       </c>
       <c r="CD16" s="1">
-        <v>15.852241</v>
+        <v>15.852240999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>1830.470000</v>
+        <v>1830.47</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1406.330000</v>
+        <v>-1406.33</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>56893.882017</v>
+        <v>56893.882017000004</v>
       </c>
       <c r="B17" s="1">
         <v>15.803856</v>
       </c>
       <c r="C17" s="1">
-        <v>899.164000</v>
+        <v>899.16399999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-196.996000</v>
+        <v>-196.99600000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>56903.873429</v>
+        <v>56903.873428999999</v>
       </c>
       <c r="G17" s="1">
         <v>15.806632</v>
       </c>
       <c r="H17" s="1">
-        <v>916.746000</v>
+        <v>916.74599999999998</v>
       </c>
       <c r="I17" s="1">
-        <v>-167.004000</v>
+        <v>-167.00399999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>56914.766069</v>
+        <v>56914.766068999998</v>
       </c>
       <c r="L17" s="1">
         <v>15.809657</v>
       </c>
       <c r="M17" s="1">
-        <v>939.606000</v>
+        <v>939.60599999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.619000</v>
+        <v>-118.619</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>56925.296596</v>
       </c>
       <c r="Q17" s="1">
-        <v>15.812582</v>
+        <v>15.812582000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>946.265000</v>
+        <v>946.26499999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.756000</v>
+        <v>-102.756</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>56935.855957</v>
       </c>
       <c r="V17" s="1">
-        <v>15.815516</v>
+        <v>15.815516000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>952.892000</v>
+        <v>952.89200000000005</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.077300</v>
+        <v>-88.077299999999994</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>56946.352760</v>
+        <v>56946.352760000002</v>
       </c>
       <c r="AA17" s="1">
         <v>15.818431</v>
       </c>
       <c r="AB17" s="1">
-        <v>960.035000</v>
+        <v>960.03499999999997</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.790700</v>
+        <v>-76.790700000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>56956.867481</v>
+        <v>56956.867481000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>15.821352</v>
+        <v>15.821351999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>964.702000</v>
+        <v>964.702</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.721200</v>
+        <v>-74.721199999999996</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>56967.714458</v>
+        <v>56967.714458000002</v>
       </c>
       <c r="AK17" s="1">
         <v>15.824365</v>
       </c>
       <c r="AL17" s="1">
-        <v>972.070000</v>
+        <v>972.07</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.758300</v>
+        <v>-79.758300000000006</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>56978.287680</v>
+        <v>56978.287680000001</v>
       </c>
       <c r="AP17" s="1">
         <v>15.827302</v>
       </c>
       <c r="AQ17" s="1">
-        <v>980.273000</v>
+        <v>980.27300000000002</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.534300</v>
+        <v>-91.534300000000002</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>56989.157515</v>
+        <v>56989.157514999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>15.830322</v>
+        <v>15.830322000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>990.318000</v>
+        <v>990.31799999999998</v>
       </c>
       <c r="AW17" s="1">
-        <v>-109.409000</v>
+        <v>-109.40900000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>56999.758001</v>
+        <v>56999.758001000002</v>
       </c>
       <c r="AZ17" s="1">
         <v>15.833266</v>
       </c>
       <c r="BA17" s="1">
-        <v>998.712000</v>
+        <v>998.71199999999999</v>
       </c>
       <c r="BB17" s="1">
-        <v>-125.194000</v>
+        <v>-125.194</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>57010.773190</v>
+        <v>57010.77319</v>
       </c>
       <c r="BE17" s="1">
         <v>15.836326</v>
       </c>
       <c r="BF17" s="1">
-        <v>1038.070000</v>
+        <v>1038.07</v>
       </c>
       <c r="BG17" s="1">
-        <v>-197.382000</v>
+        <v>-197.38200000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>57022.443522</v>
+        <v>57022.443522000001</v>
       </c>
       <c r="BJ17" s="1">
         <v>15.839568</v>
       </c>
       <c r="BK17" s="1">
-        <v>1105.830000</v>
+        <v>1105.83</v>
       </c>
       <c r="BL17" s="1">
-        <v>-313.736000</v>
+        <v>-313.73599999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>57033.736932</v>
@@ -4531,43 +4947,43 @@
         <v>15.842705</v>
       </c>
       <c r="BP17" s="1">
-        <v>1215.520000</v>
+        <v>1215.52</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-495.993000</v>
+        <v>-495.99299999999999</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>57045.090852</v>
+        <v>57045.090852000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>15.845859</v>
+        <v>15.845859000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1338.410000</v>
+        <v>1338.41</v>
       </c>
       <c r="BV17" s="1">
-        <v>-695.030000</v>
+        <v>-695.03</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>57056.007799</v>
+        <v>57056.007798999999</v>
       </c>
       <c r="BY17" s="1">
         <v>15.848891</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1474.750000</v>
+        <v>1474.75</v>
       </c>
       <c r="CA17" s="1">
-        <v>-906.516000</v>
+        <v>-906.51599999999996</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>57068.584853</v>
@@ -4576,150 +4992,150 @@
         <v>15.852385</v>
       </c>
       <c r="CE17" s="1">
-        <v>1830.880000</v>
+        <v>1830.88</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1406.580000</v>
+        <v>-1406.58</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>56894.225213</v>
+        <v>56894.225212999998</v>
       </c>
       <c r="B18" s="1">
         <v>15.803951</v>
       </c>
       <c r="C18" s="1">
-        <v>899.304000</v>
+        <v>899.30399999999997</v>
       </c>
       <c r="D18" s="1">
-        <v>-197.128000</v>
+        <v>-197.12799999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>56904.567296</v>
+        <v>56904.567296000001</v>
       </c>
       <c r="G18" s="1">
-        <v>15.806824</v>
+        <v>15.806824000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>916.976000</v>
+        <v>916.976</v>
       </c>
       <c r="I18" s="1">
-        <v>-167.311000</v>
+        <v>-167.31100000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>56915.112242</v>
+        <v>56915.112242000003</v>
       </c>
       <c r="L18" s="1">
-        <v>15.809753</v>
+        <v>15.809753000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>939.576000</v>
+        <v>939.57600000000002</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.793000</v>
+        <v>-118.79300000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>56925.643794</v>
+        <v>56925.643794000003</v>
       </c>
       <c r="Q18" s="1">
-        <v>15.812679</v>
+        <v>15.812678999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>946.273000</v>
+        <v>946.27300000000002</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.777000</v>
+        <v>-102.777</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>56936.203621</v>
+        <v>56936.203621000001</v>
       </c>
       <c r="V18" s="1">
         <v>15.815612</v>
       </c>
       <c r="W18" s="1">
-        <v>952.886000</v>
+        <v>952.88599999999997</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.019200</v>
+        <v>-88.019199999999998</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>56947.021862</v>
+        <v>56947.021862000001</v>
       </c>
       <c r="AA18" s="1">
         <v>15.818617</v>
       </c>
       <c r="AB18" s="1">
-        <v>959.951000</v>
+        <v>959.95100000000002</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.884100</v>
+        <v>-76.884100000000004</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>56957.543992</v>
+        <v>56957.543991999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>15.821540</v>
+        <v>15.821540000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>964.732000</v>
+        <v>964.73199999999997</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.722700</v>
+        <v>-74.722700000000003</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>56968.095914</v>
+        <v>56968.095913999998</v>
       </c>
       <c r="AK18" s="1">
-        <v>15.824471</v>
+        <v>15.824471000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>972.105000</v>
+        <v>972.10500000000002</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.731500</v>
+        <v>-79.731499999999997</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>56978.566428</v>
+        <v>56978.566427999998</v>
       </c>
       <c r="AP18" s="1">
-        <v>15.827380</v>
+        <v>15.82738</v>
       </c>
       <c r="AQ18" s="1">
-        <v>980.286000</v>
+        <v>980.28599999999994</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.538700</v>
+        <v>-91.538700000000006</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>56989.524543</v>
@@ -4728,360 +5144,360 @@
         <v>15.830423</v>
       </c>
       <c r="AV18" s="1">
-        <v>990.310000</v>
+        <v>990.31</v>
       </c>
       <c r="AW18" s="1">
-        <v>-109.396000</v>
+        <v>-109.396</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>57000.121569</v>
+        <v>57000.121569000003</v>
       </c>
       <c r="AZ18" s="1">
-        <v>15.833367</v>
+        <v>15.833367000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>998.712000</v>
+        <v>998.71199999999999</v>
       </c>
       <c r="BB18" s="1">
-        <v>-125.164000</v>
+        <v>-125.164</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>57011.418449</v>
+        <v>57011.418448999997</v>
       </c>
       <c r="BE18" s="1">
-        <v>15.836505</v>
+        <v>15.836505000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1038.060000</v>
+        <v>1038.06</v>
       </c>
       <c r="BG18" s="1">
-        <v>-197.372000</v>
+        <v>-197.37200000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>57022.867107</v>
+        <v>57022.867106999998</v>
       </c>
       <c r="BJ18" s="1">
-        <v>15.839685</v>
+        <v>15.839684999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1105.840000</v>
+        <v>1105.8399999999999</v>
       </c>
       <c r="BL18" s="1">
-        <v>-313.705000</v>
+        <v>-313.70499999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>57034.118354</v>
+        <v>57034.118353999998</v>
       </c>
       <c r="BO18" s="1">
-        <v>15.842811</v>
+        <v>15.842810999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1215.490000</v>
+        <v>1215.49</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-495.961000</v>
+        <v>-495.96100000000001</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>57045.522372</v>
+        <v>57045.522371999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>15.845978</v>
+        <v>15.845978000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1338.400000</v>
+        <v>1338.4</v>
       </c>
       <c r="BV18" s="1">
-        <v>-694.950000</v>
+        <v>-694.95</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>57056.455685</v>
+        <v>57056.455685000001</v>
       </c>
       <c r="BY18" s="1">
         <v>15.849015</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1474.780000</v>
+        <v>1474.78</v>
       </c>
       <c r="CA18" s="1">
-        <v>-906.643000</v>
+        <v>-906.64300000000003</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>57069.141365</v>
+        <v>57069.141365000003</v>
       </c>
       <c r="CD18" s="1">
         <v>15.852539</v>
       </c>
       <c r="CE18" s="1">
-        <v>1831.670000</v>
+        <v>1831.67</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1407.630000</v>
+        <v>-1407.63</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>56894.909691</v>
+        <v>56894.909691000001</v>
       </c>
       <c r="B19" s="1">
-        <v>15.804142</v>
+        <v>15.804142000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>899.316000</v>
+        <v>899.31600000000003</v>
       </c>
       <c r="D19" s="1">
-        <v>-197.076000</v>
+        <v>-197.07599999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>56904.913507</v>
+        <v>56904.913506999997</v>
       </c>
       <c r="G19" s="1">
-        <v>15.806920</v>
+        <v>15.80692</v>
       </c>
       <c r="H19" s="1">
-        <v>916.705000</v>
+        <v>916.70500000000004</v>
       </c>
       <c r="I19" s="1">
-        <v>-166.481000</v>
+        <v>-166.48099999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>56915.457952</v>
+        <v>56915.457951999997</v>
       </c>
       <c r="L19" s="1">
         <v>15.809849</v>
       </c>
       <c r="M19" s="1">
-        <v>939.505000</v>
+        <v>939.505</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.726000</v>
+        <v>-118.726</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>56925.992483</v>
+        <v>56925.992483000002</v>
       </c>
       <c r="Q19" s="1">
-        <v>15.812776</v>
+        <v>15.812775999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>946.291000</v>
+        <v>946.29100000000005</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.781000</v>
+        <v>-102.78100000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>56936.866276</v>
+        <v>56936.866276000001</v>
       </c>
       <c r="V19" s="1">
-        <v>15.815796</v>
+        <v>15.815796000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>952.817000</v>
+        <v>952.81700000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.091900</v>
+        <v>-88.091899999999995</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>56947.398823</v>
+        <v>56947.398823000003</v>
       </c>
       <c r="AA19" s="1">
-        <v>15.818722</v>
+        <v>15.818721999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>960.103000</v>
+        <v>960.10299999999995</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.789700</v>
+        <v>-76.789699999999996</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>56957.902599</v>
+        <v>56957.902599000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>15.821640</v>
+        <v>15.82164</v>
       </c>
       <c r="AG19" s="1">
-        <v>964.665000</v>
+        <v>964.66499999999996</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.813400</v>
+        <v>-74.813400000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>56968.446059</v>
+        <v>56968.446059000002</v>
       </c>
       <c r="AK19" s="1">
-        <v>15.824568</v>
+        <v>15.824567999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>972.078000</v>
+        <v>972.07799999999997</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.741800</v>
+        <v>-79.741799999999998</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>56978.913628</v>
+        <v>56978.913628000002</v>
       </c>
       <c r="AP19" s="1">
-        <v>15.827476</v>
+        <v>15.827476000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>980.283000</v>
+        <v>980.28300000000002</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.549000</v>
+        <v>-91.549000000000007</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>56989.886149</v>
+        <v>56989.886148999998</v>
       </c>
       <c r="AU19" s="1">
         <v>15.830524</v>
       </c>
       <c r="AV19" s="1">
-        <v>990.307000</v>
+        <v>990.30700000000002</v>
       </c>
       <c r="AW19" s="1">
-        <v>-109.388000</v>
+        <v>-109.38800000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>57000.531759</v>
+        <v>57000.531758999998</v>
       </c>
       <c r="AZ19" s="1">
-        <v>15.833481</v>
+        <v>15.833481000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>998.732000</v>
+        <v>998.73199999999997</v>
       </c>
       <c r="BB19" s="1">
-        <v>-125.156000</v>
+        <v>-125.15600000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>57011.842033</v>
+        <v>57011.842033000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>15.836623</v>
+        <v>15.836622999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1038.070000</v>
+        <v>1038.07</v>
       </c>
       <c r="BG19" s="1">
-        <v>-197.377000</v>
+        <v>-197.37700000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>57023.224721</v>
+        <v>57023.224720999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>15.839785</v>
+        <v>15.839784999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1105.900000</v>
+        <v>1105.9000000000001</v>
       </c>
       <c r="BL19" s="1">
-        <v>-313.700000</v>
+        <v>-313.7</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>57034.517170</v>
+        <v>57034.517169999999</v>
       </c>
       <c r="BO19" s="1">
         <v>15.842921</v>
       </c>
       <c r="BP19" s="1">
-        <v>1215.470000</v>
+        <v>1215.47</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-495.966000</v>
+        <v>-495.96600000000001</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>57045.951940</v>
+        <v>57045.951939999999</v>
       </c>
       <c r="BT19" s="1">
         <v>15.846098</v>
       </c>
       <c r="BU19" s="1">
-        <v>1338.350000</v>
+        <v>1338.35</v>
       </c>
       <c r="BV19" s="1">
-        <v>-694.878000</v>
+        <v>-694.87800000000004</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>57056.913990</v>
+        <v>57056.913990000001</v>
       </c>
       <c r="BY19" s="1">
         <v>15.849143</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1474.770000</v>
+        <v>1474.77</v>
       </c>
       <c r="CA19" s="1">
-        <v>-906.664000</v>
+        <v>-906.66399999999999</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>57069.668631</v>
@@ -5090,407 +5506,407 @@
         <v>15.852686</v>
       </c>
       <c r="CE19" s="1">
-        <v>1830.840000</v>
+        <v>1830.84</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1406.520000</v>
+        <v>-1406.52</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>56895.250973</v>
+        <v>56895.250973000002</v>
       </c>
       <c r="B20" s="1">
         <v>15.804236</v>
       </c>
       <c r="C20" s="1">
-        <v>899.273000</v>
+        <v>899.27300000000002</v>
       </c>
       <c r="D20" s="1">
-        <v>-196.998000</v>
+        <v>-196.99799999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>56905.259212</v>
+        <v>56905.259211999997</v>
       </c>
       <c r="G20" s="1">
-        <v>15.807016</v>
+        <v>15.807016000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>916.655000</v>
+        <v>916.65499999999997</v>
       </c>
       <c r="I20" s="1">
-        <v>-166.865000</v>
+        <v>-166.86500000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>56916.122095</v>
+        <v>56916.122094999999</v>
       </c>
       <c r="L20" s="1">
         <v>15.810034</v>
       </c>
       <c r="M20" s="1">
-        <v>939.570000</v>
+        <v>939.57</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.634000</v>
+        <v>-118.634</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>56926.654641</v>
+        <v>56926.654641000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>15.812960</v>
+        <v>15.81296</v>
       </c>
       <c r="R20" s="1">
-        <v>946.297000</v>
+        <v>946.29700000000003</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.784000</v>
+        <v>-102.78400000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>56937.234839</v>
+        <v>56937.234838999997</v>
       </c>
       <c r="V20" s="1">
         <v>15.815899</v>
       </c>
       <c r="W20" s="1">
-        <v>952.986000</v>
+        <v>952.98599999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.103300</v>
+        <v>-88.103300000000004</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>56947.748524</v>
+        <v>56947.748524000002</v>
       </c>
       <c r="AA20" s="1">
         <v>15.818819</v>
       </c>
       <c r="AB20" s="1">
-        <v>960.060000</v>
+        <v>960.06</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.659000</v>
+        <v>-76.659000000000006</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>56958.250819</v>
+        <v>56958.250819000001</v>
       </c>
       <c r="AF20" s="1">
         <v>15.821736</v>
       </c>
       <c r="AG20" s="1">
-        <v>964.812000</v>
+        <v>964.81200000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.808100</v>
+        <v>-74.808099999999996</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>56968.796762</v>
+        <v>56968.796761999998</v>
       </c>
       <c r="AK20" s="1">
-        <v>15.824666</v>
+        <v>15.824666000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>972.086000</v>
+        <v>972.08600000000001</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.739200</v>
+        <v>-79.739199999999997</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>56979.331259</v>
+        <v>56979.331258999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>15.827592</v>
+        <v>15.827591999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>980.277000</v>
+        <v>980.27700000000004</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.518200</v>
+        <v>-91.518199999999993</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>56990.335502</v>
+        <v>56990.335502000002</v>
       </c>
       <c r="AU20" s="1">
-        <v>15.830649</v>
+        <v>15.830648999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>990.295000</v>
+        <v>990.29499999999996</v>
       </c>
       <c r="AW20" s="1">
-        <v>-109.384000</v>
+        <v>-109.384</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>57000.835806</v>
+        <v>57000.835806000003</v>
       </c>
       <c r="AZ20" s="1">
-        <v>15.833566</v>
+        <v>15.833565999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>998.714000</v>
+        <v>998.71400000000006</v>
       </c>
       <c r="BB20" s="1">
-        <v>-125.165000</v>
+        <v>-125.16500000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>57012.235361</v>
+        <v>57012.235360999999</v>
       </c>
       <c r="BE20" s="1">
         <v>15.836732</v>
       </c>
       <c r="BF20" s="1">
-        <v>1038.090000</v>
+        <v>1038.0899999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-197.368000</v>
+        <v>-197.36799999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>57023.599698</v>
+        <v>57023.599697999998</v>
       </c>
       <c r="BJ20" s="1">
-        <v>15.839889</v>
+        <v>15.839888999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1105.900000</v>
+        <v>1105.9000000000001</v>
       </c>
       <c r="BL20" s="1">
-        <v>-313.756000</v>
+        <v>-313.75599999999997</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>57034.938738</v>
+        <v>57034.938737999997</v>
       </c>
       <c r="BO20" s="1">
-        <v>15.843039</v>
+        <v>15.843038999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1215.480000</v>
+        <v>1215.48</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-495.991000</v>
+        <v>-495.99099999999999</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>57046.371536</v>
+        <v>57046.371535999999</v>
       </c>
       <c r="BT20" s="1">
         <v>15.846214</v>
       </c>
       <c r="BU20" s="1">
-        <v>1338.350000</v>
+        <v>1338.35</v>
       </c>
       <c r="BV20" s="1">
-        <v>-694.833000</v>
+        <v>-694.83299999999997</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>57057.363364</v>
+        <v>57057.363363999997</v>
       </c>
       <c r="BY20" s="1">
         <v>15.849268</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1474.800000</v>
+        <v>1474.8</v>
       </c>
       <c r="CA20" s="1">
-        <v>-906.569000</v>
+        <v>-906.56899999999996</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>57070.186959</v>
+        <v>57070.186958999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>15.852830</v>
+        <v>15.852830000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>1829.950000</v>
+        <v>1829.95</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1407.630000</v>
+        <v>-1407.63</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>56895.591690</v>
+        <v>56895.591690000001</v>
       </c>
       <c r="B21" s="1">
-        <v>15.804331</v>
+        <v>15.804330999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>899.273000</v>
+        <v>899.27300000000002</v>
       </c>
       <c r="D21" s="1">
-        <v>-197.149000</v>
+        <v>-197.149</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>56905.917900</v>
+        <v>56905.9179</v>
       </c>
       <c r="G21" s="1">
-        <v>15.807199</v>
+        <v>15.807199000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>917.323000</v>
+        <v>917.32299999999998</v>
       </c>
       <c r="I21" s="1">
-        <v>-166.588000</v>
+        <v>-166.58799999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>56916.492716</v>
+        <v>56916.492716000001</v>
       </c>
       <c r="L21" s="1">
-        <v>15.810137</v>
+        <v>15.810136999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>939.497000</v>
+        <v>939.49699999999996</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.662000</v>
+        <v>-118.66200000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>56927.039572</v>
+        <v>56927.039572000001</v>
       </c>
       <c r="Q21" s="1">
         <v>15.813067</v>
       </c>
       <c r="R21" s="1">
-        <v>946.253000</v>
+        <v>946.25300000000004</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.782000</v>
+        <v>-102.782</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>56937.578034</v>
+        <v>56937.578033999998</v>
       </c>
       <c r="V21" s="1">
         <v>15.815994</v>
       </c>
       <c r="W21" s="1">
-        <v>952.896000</v>
+        <v>952.89599999999996</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.086100</v>
+        <v>-88.086100000000002</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>56948.095733</v>
+        <v>56948.095733000002</v>
       </c>
       <c r="AA21" s="1">
-        <v>15.818915</v>
+        <v>15.818915000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>960.058000</v>
+        <v>960.05799999999999</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.779900</v>
+        <v>-76.779899999999998</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>56958.595511</v>
       </c>
       <c r="AF21" s="1">
-        <v>15.821832</v>
+        <v>15.821832000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>964.652000</v>
+        <v>964.65200000000004</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.707600</v>
+        <v>-74.707599999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>56969.221369</v>
+        <v>56969.221368999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>15.824784</v>
+        <v>15.824783999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>972.091000</v>
+        <v>972.09100000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.722300</v>
+        <v>-79.722300000000004</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>56979.630844</v>
+        <v>56979.630843999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>15.827675</v>
+        <v>15.827674999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>980.286000</v>
+        <v>980.28599999999994</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.537000</v>
+        <v>-91.537000000000006</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>56990.614254</v>
@@ -5499,165 +5915,165 @@
         <v>15.830726</v>
       </c>
       <c r="AV21" s="1">
-        <v>990.308000</v>
+        <v>990.30799999999999</v>
       </c>
       <c r="AW21" s="1">
-        <v>-109.407000</v>
+        <v>-109.407</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>57001.194415</v>
+        <v>57001.194414999998</v>
       </c>
       <c r="AZ21" s="1">
         <v>15.833665</v>
       </c>
       <c r="BA21" s="1">
-        <v>998.726000</v>
+        <v>998.726</v>
       </c>
       <c r="BB21" s="1">
-        <v>-125.179000</v>
+        <v>-125.179</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>57012.592479</v>
+        <v>57012.592478999999</v>
       </c>
       <c r="BE21" s="1">
         <v>15.836831</v>
       </c>
       <c r="BF21" s="1">
-        <v>1038.070000</v>
+        <v>1038.07</v>
       </c>
       <c r="BG21" s="1">
-        <v>-197.359000</v>
+        <v>-197.35900000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>57023.975170</v>
+        <v>57023.975169999998</v>
       </c>
       <c r="BJ21" s="1">
         <v>15.839993</v>
       </c>
       <c r="BK21" s="1">
-        <v>1105.900000</v>
+        <v>1105.9000000000001</v>
       </c>
       <c r="BL21" s="1">
-        <v>-313.757000</v>
+        <v>-313.75700000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>57035.754161</v>
+        <v>57035.754160999997</v>
       </c>
       <c r="BO21" s="1">
-        <v>15.843265</v>
+        <v>15.843265000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1215.520000</v>
+        <v>1215.52</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-495.926000</v>
+        <v>-495.92599999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>57046.789686</v>
+        <v>57046.789685999996</v>
       </c>
       <c r="BT21" s="1">
-        <v>15.846330</v>
+        <v>15.84633</v>
       </c>
       <c r="BU21" s="1">
-        <v>1338.340000</v>
+        <v>1338.34</v>
       </c>
       <c r="BV21" s="1">
-        <v>-694.837000</v>
+        <v>-694.83699999999999</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>57057.783011</v>
       </c>
       <c r="BY21" s="1">
-        <v>15.849384</v>
+        <v>15.849384000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1474.750000</v>
+        <v>1474.75</v>
       </c>
       <c r="CA21" s="1">
-        <v>-906.672000</v>
+        <v>-906.67200000000003</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>57070.706279</v>
+        <v>57070.706278999998</v>
       </c>
       <c r="CD21" s="1">
         <v>15.852974</v>
       </c>
       <c r="CE21" s="1">
-        <v>1831.190000</v>
+        <v>1831.19</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1407.870000</v>
+        <v>-1407.87</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>56896.247401</v>
+        <v>56896.247401000001</v>
       </c>
       <c r="B22" s="1">
         <v>15.804513</v>
       </c>
       <c r="C22" s="1">
-        <v>899.272000</v>
+        <v>899.27200000000005</v>
       </c>
       <c r="D22" s="1">
-        <v>-197.049000</v>
+        <v>-197.04900000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>56906.292414</v>
+        <v>56906.292414000003</v>
       </c>
       <c r="G22" s="1">
-        <v>15.807303</v>
+        <v>15.807302999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>916.662000</v>
+        <v>916.66200000000003</v>
       </c>
       <c r="I22" s="1">
-        <v>-166.669000</v>
+        <v>-166.66900000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>56916.845293</v>
+        <v>56916.845292999998</v>
       </c>
       <c r="L22" s="1">
         <v>15.810235</v>
       </c>
       <c r="M22" s="1">
-        <v>939.611000</v>
+        <v>939.61099999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.728000</v>
+        <v>-118.72799999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>56927.389744</v>
@@ -5666,133 +6082,133 @@
         <v>15.813164</v>
       </c>
       <c r="R22" s="1">
-        <v>946.244000</v>
+        <v>946.24400000000003</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.762000</v>
+        <v>-102.762</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>56937.918327</v>
+        <v>56937.918326999999</v>
       </c>
       <c r="V22" s="1">
-        <v>15.816088</v>
+        <v>15.816088000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>952.834000</v>
+        <v>952.83399999999995</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.111500</v>
+        <v>-88.111500000000007</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>56948.530196</v>
       </c>
       <c r="AA22" s="1">
-        <v>15.819036</v>
+        <v>15.819036000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>960.150000</v>
+        <v>960.15</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.908200</v>
+        <v>-76.908199999999994</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>56959.022315</v>
+        <v>56959.022315000002</v>
       </c>
       <c r="AF22" s="1">
         <v>15.821951</v>
       </c>
       <c r="AG22" s="1">
-        <v>964.746000</v>
+        <v>964.74599999999998</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.783400</v>
+        <v>-74.7834</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>56969.502040</v>
+        <v>56969.502039999999</v>
       </c>
       <c r="AK22" s="1">
         <v>15.824862</v>
       </c>
       <c r="AL22" s="1">
-        <v>972.089000</v>
+        <v>972.08900000000006</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.740800</v>
+        <v>-79.740799999999993</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>56979.995402</v>
       </c>
       <c r="AP22" s="1">
-        <v>15.827777</v>
+        <v>15.827776999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>980.319000</v>
+        <v>980.31899999999996</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.502700</v>
+        <v>-91.502700000000004</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>56990.978317</v>
+        <v>56990.978317000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>15.830827</v>
+        <v>15.830826999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>990.299000</v>
+        <v>990.29899999999998</v>
       </c>
       <c r="AW22" s="1">
-        <v>-109.406000</v>
+        <v>-109.40600000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>57001.554541</v>
+        <v>57001.554540999998</v>
       </c>
       <c r="AZ22" s="1">
         <v>15.833765</v>
       </c>
       <c r="BA22" s="1">
-        <v>998.731000</v>
+        <v>998.73099999999999</v>
       </c>
       <c r="BB22" s="1">
-        <v>-125.176000</v>
+        <v>-125.176</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>57013.317321</v>
+        <v>57013.317321000002</v>
       </c>
       <c r="BE22" s="1">
         <v>15.837033</v>
       </c>
       <c r="BF22" s="1">
-        <v>1038.100000</v>
+        <v>1038.0999999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-197.376000</v>
+        <v>-197.376</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>57024.751935</v>
@@ -5801,315 +6217,315 @@
         <v>15.840209</v>
       </c>
       <c r="BK22" s="1">
-        <v>1105.860000</v>
+        <v>1105.8599999999999</v>
       </c>
       <c r="BL22" s="1">
-        <v>-313.707000</v>
+        <v>-313.70699999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>57036.173280</v>
+        <v>57036.173280000003</v>
       </c>
       <c r="BO22" s="1">
-        <v>15.843381</v>
+        <v>15.843381000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1215.470000</v>
+        <v>1215.47</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-495.988000</v>
+        <v>-495.988</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>57047.218722</v>
+        <v>57047.218721999998</v>
       </c>
       <c r="BT22" s="1">
-        <v>15.846450</v>
+        <v>15.846450000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1338.260000</v>
+        <v>1338.26</v>
       </c>
       <c r="BV22" s="1">
-        <v>-694.748000</v>
+        <v>-694.74800000000005</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>57058.225939</v>
+        <v>57058.225939000004</v>
       </c>
       <c r="BY22" s="1">
-        <v>15.849507</v>
+        <v>15.849506999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1474.790000</v>
+        <v>1474.79</v>
       </c>
       <c r="CA22" s="1">
-        <v>-906.587000</v>
+        <v>-906.58699999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>57071.533075</v>
+        <v>57071.533074999999</v>
       </c>
       <c r="CD22" s="1">
         <v>15.853204</v>
       </c>
       <c r="CE22" s="1">
-        <v>1831.180000</v>
+        <v>1831.18</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1406.720000</v>
+        <v>-1406.72</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>56896.617416</v>
+        <v>56896.617416000001</v>
       </c>
       <c r="B23" s="1">
-        <v>15.804616</v>
+        <v>15.804615999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>899.299000</v>
+        <v>899.29899999999998</v>
       </c>
       <c r="D23" s="1">
-        <v>-197.135000</v>
+        <v>-197.13499999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>56906.632637</v>
+        <v>56906.632637000002</v>
       </c>
       <c r="G23" s="1">
-        <v>15.807398</v>
+        <v>15.807397999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>916.294000</v>
+        <v>916.29399999999998</v>
       </c>
       <c r="I23" s="1">
-        <v>-167.118000</v>
+        <v>-167.11799999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>56917.184526</v>
+        <v>56917.184525999997</v>
       </c>
       <c r="L23" s="1">
-        <v>15.810329</v>
+        <v>15.810328999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>939.681000</v>
+        <v>939.68100000000004</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.763000</v>
+        <v>-118.76300000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>56927.740880</v>
+        <v>56927.740879999998</v>
       </c>
       <c r="Q23" s="1">
-        <v>15.813261</v>
+        <v>15.813261000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>946.288000</v>
+        <v>946.28800000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.765000</v>
+        <v>-102.765</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>56938.339900</v>
+        <v>56938.339899999999</v>
       </c>
       <c r="V23" s="1">
-        <v>15.816206</v>
+        <v>15.816205999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>952.877000</v>
+        <v>952.87699999999995</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.046200</v>
+        <v>-88.046199999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>56948.810444</v>
+        <v>56948.810444000002</v>
       </c>
       <c r="AA23" s="1">
-        <v>15.819114</v>
+        <v>15.819114000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>960.023000</v>
+        <v>960.02300000000002</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.848100</v>
+        <v>-76.848100000000002</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>56959.293383</v>
+        <v>56959.293382999997</v>
       </c>
       <c r="AF23" s="1">
-        <v>15.822026</v>
+        <v>15.822025999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>964.838000</v>
+        <v>964.83799999999997</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.755800</v>
+        <v>-74.755799999999994</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>56969.847257</v>
+        <v>56969.847257000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>15.824958</v>
+        <v>15.824958000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>972.103000</v>
+        <v>972.10299999999995</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.737100</v>
+        <v>-79.737099999999998</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>56980.356026</v>
+        <v>56980.356026000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>15.827877</v>
+        <v>15.827877000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>980.256000</v>
+        <v>980.25599999999997</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.509400</v>
+        <v>-91.509399999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>56991.345387</v>
+        <v>56991.345387000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>15.830929</v>
+        <v>15.830928999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>990.302000</v>
+        <v>990.30200000000002</v>
       </c>
       <c r="AW23" s="1">
-        <v>-109.415000</v>
+        <v>-109.41500000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>57002.275197</v>
+        <v>57002.275197000003</v>
       </c>
       <c r="AZ23" s="1">
-        <v>15.833965</v>
+        <v>15.833964999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>998.723000</v>
+        <v>998.72299999999996</v>
       </c>
       <c r="BB23" s="1">
-        <v>-125.167000</v>
+        <v>-125.167</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>57013.707486</v>
+        <v>57013.707485999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>15.837141</v>
+        <v>15.837141000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1038.070000</v>
+        <v>1038.07</v>
       </c>
       <c r="BG23" s="1">
-        <v>-197.374000</v>
+        <v>-197.374</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>57025.123904</v>
       </c>
       <c r="BJ23" s="1">
-        <v>15.840312</v>
+        <v>15.840312000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1105.920000</v>
+        <v>1105.92</v>
       </c>
       <c r="BL23" s="1">
-        <v>-313.737000</v>
+        <v>-313.73700000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>57036.570608</v>
+        <v>57036.570608000002</v>
       </c>
       <c r="BO23" s="1">
-        <v>15.843492</v>
+        <v>15.843491999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1215.430000</v>
+        <v>1215.43</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-495.973000</v>
+        <v>-495.97300000000001</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>57047.951778</v>
+        <v>57047.951778000002</v>
       </c>
       <c r="BT23" s="1">
         <v>15.846653</v>
       </c>
       <c r="BU23" s="1">
-        <v>1338.160000</v>
+        <v>1338.16</v>
       </c>
       <c r="BV23" s="1">
-        <v>-694.750000</v>
+        <v>-694.75</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>57058.972386</v>
+        <v>57058.972386000001</v>
       </c>
       <c r="BY23" s="1">
         <v>15.849715</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1474.810000</v>
+        <v>1474.81</v>
       </c>
       <c r="CA23" s="1">
-        <v>-906.543000</v>
+        <v>-906.54300000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>57071.740908</v>
@@ -6118,317 +6534,317 @@
         <v>15.853261</v>
       </c>
       <c r="CE23" s="1">
-        <v>1830.130000</v>
+        <v>1830.13</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1406.630000</v>
+        <v>-1406.63</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>56896.961203</v>
+        <v>56896.961202999999</v>
       </c>
       <c r="B24" s="1">
-        <v>15.804711</v>
+        <v>15.804710999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>899.177000</v>
+        <v>899.17700000000002</v>
       </c>
       <c r="D24" s="1">
-        <v>-197.083000</v>
+        <v>-197.083</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>56906.981323</v>
       </c>
       <c r="G24" s="1">
-        <v>15.807495</v>
+        <v>15.807494999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>916.506000</v>
+        <v>916.50599999999997</v>
       </c>
       <c r="I24" s="1">
-        <v>-166.695000</v>
+        <v>-166.69499999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>56917.610094</v>
+        <v>56917.610094000003</v>
       </c>
       <c r="L24" s="1">
         <v>15.810447</v>
       </c>
       <c r="M24" s="1">
-        <v>939.570000</v>
+        <v>939.57</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.784000</v>
+        <v>-118.78400000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>56928.164463</v>
+        <v>56928.164463000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>15.813379</v>
+        <v>15.813378999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>946.327000</v>
+        <v>946.327</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.745000</v>
+        <v>-102.745</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>56938.615695</v>
       </c>
       <c r="V24" s="1">
-        <v>15.816282</v>
+        <v>15.816281999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>952.825000</v>
+        <v>952.82500000000005</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.081400</v>
+        <v>-88.081400000000002</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>56949.159125</v>
+        <v>56949.159124999998</v>
       </c>
       <c r="AA24" s="1">
-        <v>15.819211</v>
+        <v>15.819210999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>960.003000</v>
+        <v>960.00300000000004</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.756800</v>
+        <v>-76.756799999999998</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>56959.633142</v>
+        <v>56959.633141999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>15.822120</v>
+        <v>15.82212</v>
       </c>
       <c r="AG24" s="1">
-        <v>964.836000</v>
+        <v>964.83600000000001</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.769300</v>
+        <v>-74.769300000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>56970.201401</v>
+        <v>56970.201400999998</v>
       </c>
       <c r="AK24" s="1">
         <v>15.825056</v>
       </c>
       <c r="AL24" s="1">
-        <v>972.097000</v>
+        <v>972.09699999999998</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.737000</v>
+        <v>-79.736999999999995</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>56981.072217</v>
+        <v>56981.072217000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>15.828076</v>
+        <v>15.828075999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>980.311000</v>
+        <v>980.31100000000004</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.517800</v>
+        <v>-91.517799999999994</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>56992.075962</v>
+        <v>56992.075962000003</v>
       </c>
       <c r="AU24" s="1">
         <v>15.831132</v>
       </c>
       <c r="AV24" s="1">
-        <v>990.296000</v>
+        <v>990.29600000000005</v>
       </c>
       <c r="AW24" s="1">
-        <v>-109.412000</v>
+        <v>-109.41200000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>57002.651660</v>
+        <v>57002.651660000003</v>
       </c>
       <c r="AZ24" s="1">
-        <v>15.834070</v>
+        <v>15.834070000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>998.736000</v>
+        <v>998.73599999999999</v>
       </c>
       <c r="BB24" s="1">
-        <v>-125.174000</v>
+        <v>-125.17400000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>57014.068078</v>
+        <v>57014.068077999997</v>
       </c>
       <c r="BE24" s="1">
-        <v>15.837241</v>
+        <v>15.837241000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1038.090000</v>
+        <v>1038.0899999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-197.376000</v>
+        <v>-197.376</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>57025.499702</v>
+        <v>57025.499702000001</v>
       </c>
       <c r="BJ24" s="1">
         <v>15.840417</v>
       </c>
       <c r="BK24" s="1">
-        <v>1105.850000</v>
+        <v>1105.8499999999999</v>
       </c>
       <c r="BL24" s="1">
-        <v>-313.765000</v>
+        <v>-313.76499999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>57037.305648</v>
+        <v>57037.305648000001</v>
       </c>
       <c r="BO24" s="1">
         <v>15.843696</v>
       </c>
       <c r="BP24" s="1">
-        <v>1215.510000</v>
+        <v>1215.51</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-495.992000</v>
+        <v>-495.99200000000002</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>57048.061888</v>
+        <v>57048.061887999997</v>
       </c>
       <c r="BT24" s="1">
         <v>15.846684</v>
       </c>
       <c r="BU24" s="1">
-        <v>1338.090000</v>
+        <v>1338.09</v>
       </c>
       <c r="BV24" s="1">
-        <v>-694.803000</v>
+        <v>-694.803</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>57059.093906</v>
+        <v>57059.093906000002</v>
       </c>
       <c r="BY24" s="1">
         <v>15.849748</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1474.640000</v>
+        <v>1474.64</v>
       </c>
       <c r="CA24" s="1">
-        <v>-906.659000</v>
+        <v>-906.65899999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>57072.261696</v>
+        <v>57072.261696000001</v>
       </c>
       <c r="CD24" s="1">
         <v>15.853406</v>
       </c>
       <c r="CE24" s="1">
-        <v>1829.720000</v>
+        <v>1829.72</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1406.830000</v>
+        <v>-1406.83</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>56897.387703</v>
       </c>
       <c r="B25" s="1">
-        <v>15.804830</v>
+        <v>15.804830000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>899.320000</v>
+        <v>899.32</v>
       </c>
       <c r="D25" s="1">
-        <v>-197.165000</v>
+        <v>-197.16499999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>56907.418794</v>
+        <v>56907.418793999997</v>
       </c>
       <c r="G25" s="1">
-        <v>15.807616</v>
+        <v>15.807615999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>916.558000</v>
+        <v>916.55799999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-167.210000</v>
+        <v>-167.21</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>56917.877965</v>
       </c>
       <c r="L25" s="1">
-        <v>15.810522</v>
+        <v>15.810522000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>939.750000</v>
+        <v>939.75</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.650000</v>
+        <v>-118.65</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>56928.444207</v>
@@ -6437,285 +6853,285 @@
         <v>15.813457</v>
       </c>
       <c r="R25" s="1">
-        <v>946.345000</v>
+        <v>946.34500000000003</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.747000</v>
+        <v>-102.747</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>56938.959429</v>
+        <v>56938.959429000002</v>
       </c>
       <c r="V25" s="1">
         <v>15.816378</v>
       </c>
       <c r="W25" s="1">
-        <v>952.911000</v>
+        <v>952.91099999999994</v>
       </c>
       <c r="X25" s="1">
-        <v>-87.974500</v>
+        <v>-87.974500000000006</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>56949.508338</v>
       </c>
       <c r="AA25" s="1">
-        <v>15.819308</v>
+        <v>15.819307999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>960.077000</v>
+        <v>960.077</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.788300</v>
+        <v>-76.788300000000007</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>56959.980372</v>
+        <v>56959.980371999998</v>
       </c>
       <c r="AF25" s="1">
         <v>15.822217</v>
       </c>
       <c r="AG25" s="1">
-        <v>964.793000</v>
+        <v>964.79300000000001</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.768800</v>
+        <v>-74.768799999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>56970.894806</v>
+        <v>56970.894805999997</v>
       </c>
       <c r="AK25" s="1">
-        <v>15.825249</v>
+        <v>15.825248999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>972.076000</v>
+        <v>972.07600000000002</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.703900</v>
+        <v>-79.703900000000004</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>56981.434327</v>
+        <v>56981.434327000003</v>
       </c>
       <c r="AP25" s="1">
-        <v>15.828176</v>
+        <v>15.828175999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>980.283000</v>
+        <v>980.28300000000002</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.535100</v>
+        <v>-91.5351</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>56992.456922</v>
+        <v>56992.456921999998</v>
       </c>
       <c r="AU25" s="1">
-        <v>15.831238</v>
+        <v>15.831238000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>990.318000</v>
+        <v>990.31799999999998</v>
       </c>
       <c r="AW25" s="1">
-        <v>-109.405000</v>
+        <v>-109.405</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>57003.031596</v>
+        <v>57003.031596000001</v>
       </c>
       <c r="AZ25" s="1">
         <v>15.834175</v>
       </c>
       <c r="BA25" s="1">
-        <v>998.718000</v>
+        <v>998.71799999999996</v>
       </c>
       <c r="BB25" s="1">
-        <v>-125.150000</v>
+        <v>-125.15</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>57014.738209</v>
+        <v>57014.738209000003</v>
       </c>
       <c r="BE25" s="1">
         <v>15.837427</v>
       </c>
       <c r="BF25" s="1">
-        <v>1038.090000</v>
+        <v>1038.0899999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-197.373000</v>
+        <v>-197.37299999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>57026.191293</v>
+        <v>57026.191293000003</v>
       </c>
       <c r="BJ25" s="1">
-        <v>15.840609</v>
+        <v>15.840609000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1105.860000</v>
+        <v>1105.8599999999999</v>
       </c>
       <c r="BL25" s="1">
-        <v>-313.704000</v>
+        <v>-313.70400000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>57037.808590</v>
+        <v>57037.808590000001</v>
       </c>
       <c r="BO25" s="1">
         <v>15.843836</v>
       </c>
       <c r="BP25" s="1">
-        <v>1215.460000</v>
+        <v>1215.46</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-495.960000</v>
+        <v>-495.96</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>57048.501376</v>
       </c>
       <c r="BT25" s="1">
-        <v>15.846806</v>
+        <v>15.846806000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1338.080000</v>
+        <v>1338.08</v>
       </c>
       <c r="BV25" s="1">
-        <v>-694.777000</v>
+        <v>-694.77700000000004</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>57059.547745</v>
+        <v>57059.547745000003</v>
       </c>
       <c r="BY25" s="1">
         <v>15.849874</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1474.740000</v>
+        <v>1474.74</v>
       </c>
       <c r="CA25" s="1">
-        <v>-906.680000</v>
+        <v>-906.68</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>57072.810768</v>
+        <v>57072.810768000003</v>
       </c>
       <c r="CD25" s="1">
-        <v>15.853559</v>
+        <v>15.853559000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>1830.910000</v>
+        <v>1830.91</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1406.490000</v>
+        <v>-1406.49</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>56897.664012</v>
+        <v>56897.664012000001</v>
       </c>
       <c r="B26" s="1">
         <v>15.804907</v>
       </c>
       <c r="C26" s="1">
-        <v>899.474000</v>
+        <v>899.47400000000005</v>
       </c>
       <c r="D26" s="1">
-        <v>-197.120000</v>
+        <v>-197.12</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>56907.672746</v>
+        <v>56907.672745999997</v>
       </c>
       <c r="G26" s="1">
         <v>15.807687</v>
       </c>
       <c r="H26" s="1">
-        <v>916.501000</v>
+        <v>916.50099999999998</v>
       </c>
       <c r="I26" s="1">
-        <v>-166.830000</v>
+        <v>-166.83</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>56918.226620</v>
+        <v>56918.226620000001</v>
       </c>
       <c r="L26" s="1">
-        <v>15.810619</v>
+        <v>15.810619000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>939.546000</v>
+        <v>939.54600000000005</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.660000</v>
+        <v>-118.66</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>56928.790414</v>
+        <v>56928.790414000003</v>
       </c>
       <c r="Q26" s="1">
-        <v>15.813553</v>
+        <v>15.813553000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>946.337000</v>
+        <v>946.33699999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.766000</v>
+        <v>-102.76600000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>56939.303617</v>
+        <v>56939.303616999998</v>
       </c>
       <c r="V26" s="1">
         <v>15.816473</v>
       </c>
       <c r="W26" s="1">
-        <v>952.849000</v>
+        <v>952.84900000000005</v>
       </c>
       <c r="X26" s="1">
-        <v>-87.969000</v>
+        <v>-87.968999999999994</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>56950.205683</v>
@@ -6724,163 +7140,163 @@
         <v>15.819502</v>
       </c>
       <c r="AB26" s="1">
-        <v>959.972000</v>
+        <v>959.97199999999998</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.734800</v>
+        <v>-76.734800000000007</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>56960.668293</v>
+        <v>56960.668293000002</v>
       </c>
       <c r="AF26" s="1">
-        <v>15.822408</v>
+        <v>15.822407999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>964.793000</v>
+        <v>964.79300000000001</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.740100</v>
+        <v>-74.740099999999998</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>56971.242038</v>
+        <v>56971.242037999997</v>
       </c>
       <c r="AK26" s="1">
         <v>15.825345</v>
       </c>
       <c r="AL26" s="1">
-        <v>972.101000</v>
+        <v>972.101</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.697000</v>
+        <v>-79.697000000000003</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>56981.795385</v>
+        <v>56981.795384999998</v>
       </c>
       <c r="AP26" s="1">
-        <v>15.828276</v>
+        <v>15.828276000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>980.293000</v>
+        <v>980.29300000000001</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.539200</v>
+        <v>-91.539199999999994</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>56992.823470</v>
+        <v>56992.823470000003</v>
       </c>
       <c r="AU26" s="1">
-        <v>15.831340</v>
+        <v>15.831340000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>990.316000</v>
+        <v>990.31600000000003</v>
       </c>
       <c r="AW26" s="1">
-        <v>-109.401000</v>
+        <v>-109.401</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>57003.703180</v>
+        <v>57003.703179999997</v>
       </c>
       <c r="AZ26" s="1">
         <v>15.834362</v>
       </c>
       <c r="BA26" s="1">
-        <v>998.722000</v>
+        <v>998.72199999999998</v>
       </c>
       <c r="BB26" s="1">
-        <v>-125.174000</v>
+        <v>-125.17400000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>57015.149356</v>
+        <v>57015.149356000002</v>
       </c>
       <c r="BE26" s="1">
         <v>15.837541</v>
       </c>
       <c r="BF26" s="1">
-        <v>1038.070000</v>
+        <v>1038.07</v>
       </c>
       <c r="BG26" s="1">
-        <v>-197.372000</v>
+        <v>-197.37200000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>57026.655566</v>
+        <v>57026.655566000001</v>
       </c>
       <c r="BJ26" s="1">
         <v>15.840738</v>
       </c>
       <c r="BK26" s="1">
-        <v>1105.870000</v>
+        <v>1105.8699999999999</v>
       </c>
       <c r="BL26" s="1">
-        <v>-313.709000</v>
+        <v>-313.709</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>57038.228205</v>
+        <v>57038.228204999999</v>
       </c>
       <c r="BO26" s="1">
         <v>15.843952</v>
       </c>
       <c r="BP26" s="1">
-        <v>1215.520000</v>
+        <v>1215.52</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-495.982000</v>
+        <v>-495.98200000000003</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>57048.927903</v>
+        <v>57048.927903000003</v>
       </c>
       <c r="BT26" s="1">
         <v>15.846924</v>
       </c>
       <c r="BU26" s="1">
-        <v>1338.050000</v>
+        <v>1338.05</v>
       </c>
       <c r="BV26" s="1">
-        <v>-694.810000</v>
+        <v>-694.81</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>57060.111731</v>
+        <v>57060.111730999997</v>
       </c>
       <c r="BY26" s="1">
         <v>15.850031</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1474.820000</v>
+        <v>1474.82</v>
       </c>
       <c r="CA26" s="1">
-        <v>-906.633000</v>
+        <v>-906.63300000000004</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>57073.337024</v>
@@ -6889,15 +7305,16 @@
         <v>15.853705</v>
       </c>
       <c r="CE26" s="1">
-        <v>1829.880000</v>
+        <v>1829.88</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1407.350000</v>
+        <v>-1407.35</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>